--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7302,28 +7302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.2940304803794</v>
+        <v>1026.280760767017</v>
       </c>
       <c r="AB2" t="n">
-        <v>1304.338948867691</v>
+        <v>1404.202613193156</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.85467023897</v>
+        <v>1270.187486600746</v>
       </c>
       <c r="AD2" t="n">
-        <v>953294.0304803795</v>
+        <v>1026280.760767017</v>
       </c>
       <c r="AE2" t="n">
-        <v>1304338.948867691</v>
+        <v>1404202.613193156</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.396662496674038e-06</v>
+        <v>2.361127247714742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.50737847222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179854.67023897</v>
+        <v>1270187.486600746</v>
       </c>
     </row>
     <row r="3">
@@ -7408,28 +7408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>479.8858782099143</v>
+        <v>531.7877070322263</v>
       </c>
       <c r="AB3" t="n">
-        <v>656.6010296375731</v>
+        <v>727.6154015793458</v>
       </c>
       <c r="AC3" t="n">
-        <v>593.9359489142953</v>
+        <v>658.1728088672422</v>
       </c>
       <c r="AD3" t="n">
-        <v>479885.8782099143</v>
+        <v>531787.7070322263</v>
       </c>
       <c r="AE3" t="n">
-        <v>656601.0296375731</v>
+        <v>727615.4015793458</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.173094432120345e-06</v>
+        <v>3.673723958189759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>593935.9489142953</v>
+        <v>658172.8088672422</v>
       </c>
     </row>
     <row r="4">
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.4308281951389</v>
+        <v>440.0035136674416</v>
       </c>
       <c r="AB4" t="n">
-        <v>545.1506366641703</v>
+        <v>602.0322189848167</v>
       </c>
       <c r="AC4" t="n">
-        <v>493.1222250246652</v>
+        <v>544.5751089624313</v>
       </c>
       <c r="AD4" t="n">
-        <v>398430.8281951389</v>
+        <v>440003.5136674416</v>
       </c>
       <c r="AE4" t="n">
-        <v>545150.6366641703</v>
+        <v>602032.2189848167</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.468037732273651e-06</v>
+        <v>4.17234024106501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.209635416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>493122.2250246652</v>
+        <v>544575.1089624313</v>
       </c>
     </row>
     <row r="5">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>358.5215067136545</v>
+        <v>400.1794435319778</v>
       </c>
       <c r="AB5" t="n">
-        <v>490.5449423382019</v>
+        <v>547.5431693114974</v>
       </c>
       <c r="AC5" t="n">
-        <v>443.7280215255938</v>
+        <v>495.2864177140721</v>
       </c>
       <c r="AD5" t="n">
-        <v>358521.5067136545</v>
+        <v>400179.4435319778</v>
       </c>
       <c r="AE5" t="n">
-        <v>490544.9423382019</v>
+        <v>547543.1693114975</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.623772276324208e-06</v>
+        <v>4.435617214738932e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>443728.0215255938</v>
+        <v>495286.4177140721</v>
       </c>
     </row>
     <row r="6">
@@ -7726,28 +7726,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>342.3454452275962</v>
+        <v>383.8327898453274</v>
       </c>
       <c r="AB6" t="n">
-        <v>468.4121413755103</v>
+        <v>525.1769565739589</v>
       </c>
       <c r="AC6" t="n">
-        <v>423.7075440232002</v>
+        <v>475.0548049290275</v>
       </c>
       <c r="AD6" t="n">
-        <v>342345.4452275962</v>
+        <v>383832.7898453274</v>
       </c>
       <c r="AE6" t="n">
-        <v>468412.1413755103</v>
+        <v>525176.956573959</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.720126023002971e-06</v>
+        <v>4.59850800420625e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>423707.5440232002</v>
+        <v>475054.8049290275</v>
       </c>
     </row>
     <row r="7">
@@ -7832,28 +7832,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>331.5671619897929</v>
+        <v>373.054506607524</v>
       </c>
       <c r="AB7" t="n">
-        <v>453.6648187452506</v>
+        <v>510.4296339436993</v>
       </c>
       <c r="AC7" t="n">
-        <v>410.3676851667752</v>
+        <v>461.7149460726025</v>
       </c>
       <c r="AD7" t="n">
-        <v>331567.1619897928</v>
+        <v>373054.506607524</v>
       </c>
       <c r="AE7" t="n">
-        <v>453664.8187452506</v>
+        <v>510429.6339436993</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.785949076693404e-06</v>
+        <v>4.709785142359796e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>410367.6851667752</v>
+        <v>461714.9460726025</v>
       </c>
     </row>
     <row r="8">
@@ -7938,28 +7938,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>323.3655114307549</v>
+        <v>354.6090535530483</v>
       </c>
       <c r="AB8" t="n">
-        <v>442.4429586190889</v>
+        <v>485.191751318609</v>
       </c>
       <c r="AC8" t="n">
-        <v>400.2168236210748</v>
+        <v>438.88573154366</v>
       </c>
       <c r="AD8" t="n">
-        <v>323365.5114307549</v>
+        <v>354609.0535530483</v>
       </c>
       <c r="AE8" t="n">
-        <v>442442.9586190889</v>
+        <v>485191.751318609</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.839074349813768e-06</v>
+        <v>4.799596052444005e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.137586805555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>400216.8236210748</v>
+        <v>438885.73154366</v>
       </c>
     </row>
     <row r="9">
@@ -8044,28 +8044,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>317.8455777999001</v>
+        <v>349.0891199221936</v>
       </c>
       <c r="AB9" t="n">
-        <v>434.8903419030686</v>
+        <v>477.6391346025886</v>
       </c>
       <c r="AC9" t="n">
-        <v>393.3850180442673</v>
+        <v>432.0539259668526</v>
       </c>
       <c r="AD9" t="n">
-        <v>317845.5777999001</v>
+        <v>349089.1199221936</v>
       </c>
       <c r="AE9" t="n">
-        <v>434890.3419030686</v>
+        <v>477639.1346025886</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.871752461574977e-06</v>
+        <v>4.854840021740091e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.055121527777777</v>
       </c>
       <c r="AH9" t="n">
-        <v>393385.0180442673</v>
+        <v>432053.9259668526</v>
       </c>
     </row>
     <row r="10">
@@ -8150,28 +8150,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>302.7203410887977</v>
+        <v>344.2929370525494</v>
       </c>
       <c r="AB10" t="n">
-        <v>414.1953257565888</v>
+        <v>471.0767856076868</v>
       </c>
       <c r="AC10" t="n">
-        <v>374.6651051931699</v>
+        <v>426.1178783497094</v>
       </c>
       <c r="AD10" t="n">
-        <v>302720.3410887977</v>
+        <v>344292.9370525494</v>
       </c>
       <c r="AE10" t="n">
-        <v>414195.3257565888</v>
+        <v>471076.7856076867</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.899015343387185e-06</v>
+        <v>4.900929276124255e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.990017361111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>374665.10519317</v>
+        <v>426117.8783497094</v>
       </c>
     </row>
     <row r="11">
@@ -8256,28 +8256,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>298.5132800379939</v>
+        <v>340.0858760017455</v>
       </c>
       <c r="AB11" t="n">
-        <v>408.4390392244445</v>
+        <v>465.3204990755424</v>
       </c>
       <c r="AC11" t="n">
-        <v>369.4581905686546</v>
+        <v>420.9109637251941</v>
       </c>
       <c r="AD11" t="n">
-        <v>298513.2800379939</v>
+        <v>340085.8760017455</v>
       </c>
       <c r="AE11" t="n">
-        <v>408439.0392244445</v>
+        <v>465320.4990755424</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.925904761064978e-06</v>
+        <v>4.94638717085932e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.924913194444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>369458.1905686546</v>
+        <v>420910.963725194</v>
       </c>
     </row>
     <row r="12">
@@ -8362,28 +8362,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>295.7795653597042</v>
+        <v>337.3521613234558</v>
       </c>
       <c r="AB12" t="n">
-        <v>404.6986501986288</v>
+        <v>461.5801100497268</v>
       </c>
       <c r="AC12" t="n">
-        <v>366.0747790217938</v>
+        <v>417.5275521783333</v>
       </c>
       <c r="AD12" t="n">
-        <v>295779.5653597042</v>
+        <v>337352.1613234559</v>
       </c>
       <c r="AE12" t="n">
-        <v>404698.6501986288</v>
+        <v>461580.1100497268</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.939349469903876e-06</v>
+        <v>4.969116118226854e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>366074.7790217938</v>
+        <v>417527.5521783333</v>
       </c>
     </row>
     <row r="13">
@@ -8468,28 +8468,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>291.6504629055718</v>
+        <v>333.2230588693236</v>
       </c>
       <c r="AB13" t="n">
-        <v>399.049030057741</v>
+        <v>455.930489908839</v>
       </c>
       <c r="AC13" t="n">
-        <v>360.9643506978607</v>
+        <v>412.4171238544002</v>
       </c>
       <c r="AD13" t="n">
-        <v>291650.4629055719</v>
+        <v>333223.0588693236</v>
       </c>
       <c r="AE13" t="n">
-        <v>399049.030057741</v>
+        <v>455930.489908839</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.963064442439153e-06</v>
+        <v>5.009207455944585e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.838107638888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>360964.3506978607</v>
+        <v>412417.1238544002</v>
       </c>
     </row>
     <row r="14">
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>289.1135592971164</v>
+        <v>330.6861552608681</v>
       </c>
       <c r="AB14" t="n">
-        <v>395.5779266203641</v>
+        <v>452.459386471462</v>
       </c>
       <c r="AC14" t="n">
-        <v>357.8245245008227</v>
+        <v>409.2772976573622</v>
       </c>
       <c r="AD14" t="n">
-        <v>289113.5592971164</v>
+        <v>330686.1552608681</v>
       </c>
       <c r="AE14" t="n">
-        <v>395577.9266203641</v>
+        <v>452459.386471462</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.976695883345257e-06</v>
+        <v>5.032252083136667e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.807725694444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>357824.5245008227</v>
+        <v>409277.2976573622</v>
       </c>
     </row>
     <row r="15">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>287.7606703429381</v>
+        <v>329.3332663066897</v>
       </c>
       <c r="AB15" t="n">
-        <v>393.7268442680089</v>
+        <v>450.6083041191067</v>
       </c>
       <c r="AC15" t="n">
-        <v>356.1501068501659</v>
+        <v>407.6028800067054</v>
       </c>
       <c r="AD15" t="n">
-        <v>287760.670342938</v>
+        <v>329333.2663066897</v>
       </c>
       <c r="AE15" t="n">
-        <v>393726.8442680089</v>
+        <v>450608.3041191067</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.983324871731102e-06</v>
+        <v>5.043458716908159e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.792534722222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>356150.1068501659</v>
+        <v>407602.8800067054</v>
       </c>
     </row>
     <row r="16">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>284.4600963224269</v>
+        <v>326.0326922861786</v>
       </c>
       <c r="AB16" t="n">
-        <v>389.2108532820965</v>
+        <v>446.0923131331944</v>
       </c>
       <c r="AC16" t="n">
-        <v>352.0651157057158</v>
+        <v>403.5178888622553</v>
       </c>
       <c r="AD16" t="n">
-        <v>284460.0963224269</v>
+        <v>326032.6922861786</v>
       </c>
       <c r="AE16" t="n">
-        <v>389210.8532820965</v>
+        <v>446092.3131331943</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.99788997297324e-06</v>
+        <v>5.068081743222986e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH16" t="n">
-        <v>352065.1157057158</v>
+        <v>403517.8888622553</v>
       </c>
     </row>
     <row r="17">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>283.0183656181431</v>
+        <v>324.5909615818948</v>
       </c>
       <c r="AB17" t="n">
-        <v>387.2382137278257</v>
+        <v>444.1196735789237</v>
       </c>
       <c r="AC17" t="n">
-        <v>350.2807421018877</v>
+        <v>401.7335152584272</v>
       </c>
       <c r="AD17" t="n">
-        <v>283018.3656181431</v>
+        <v>324590.9615818948</v>
       </c>
       <c r="AE17" t="n">
-        <v>387238.2137278257</v>
+        <v>444119.6735789237</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.005172523594309e-06</v>
+        <v>5.0803932563804e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.742621527777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>350280.7421018876</v>
+        <v>401733.5152584272</v>
       </c>
     </row>
     <row r="18">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>280.6535917205538</v>
+        <v>322.2261876843055</v>
       </c>
       <c r="AB18" t="n">
-        <v>384.0026257546826</v>
+        <v>440.8840856057806</v>
       </c>
       <c r="AC18" t="n">
-        <v>347.3539541037251</v>
+        <v>398.8067272602646</v>
       </c>
       <c r="AD18" t="n">
-        <v>280653.5917205538</v>
+        <v>322226.1876843055</v>
       </c>
       <c r="AE18" t="n">
-        <v>384002.6257546826</v>
+        <v>440884.0856057806</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.012921904383396e-06</v>
+        <v>5.093493969099186e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.725260416666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>347353.9541037251</v>
+        <v>398806.7272602646</v>
       </c>
     </row>
     <row r="19">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>279.0410567467203</v>
+        <v>320.613652710472</v>
       </c>
       <c r="AB19" t="n">
-        <v>381.7962842634614</v>
+        <v>438.6777441145594</v>
       </c>
       <c r="AC19" t="n">
-        <v>345.3581827478063</v>
+        <v>396.8109559043458</v>
       </c>
       <c r="AD19" t="n">
-        <v>279041.0567467203</v>
+        <v>320613.652710472</v>
       </c>
       <c r="AE19" t="n">
-        <v>381796.2842634614</v>
+        <v>438677.7441145594</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.020484553105276e-06</v>
+        <v>5.106279001993423e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.707899305555555</v>
       </c>
       <c r="AH19" t="n">
-        <v>345358.1827478063</v>
+        <v>396810.9559043458</v>
       </c>
     </row>
     <row r="20">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>276.8181703772068</v>
+        <v>318.3907663409584</v>
       </c>
       <c r="AB20" t="n">
-        <v>378.7548330658676</v>
+        <v>435.6362929169655</v>
       </c>
       <c r="AC20" t="n">
-        <v>342.6070033838072</v>
+        <v>394.0597765403468</v>
       </c>
       <c r="AD20" t="n">
-        <v>276818.1703772068</v>
+        <v>318390.7663409584</v>
       </c>
       <c r="AE20" t="n">
-        <v>378754.8330658676</v>
+        <v>435636.2929169656</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.028514031995172e-06</v>
+        <v>5.119853234449033e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.690538194444445</v>
       </c>
       <c r="AH20" t="n">
-        <v>342607.0033838073</v>
+        <v>394059.7765403468</v>
       </c>
     </row>
     <row r="21">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>275.2191975091488</v>
+        <v>316.7917934729005</v>
       </c>
       <c r="AB21" t="n">
-        <v>376.5670478460863</v>
+        <v>433.4485076971842</v>
       </c>
       <c r="AC21" t="n">
-        <v>340.6280173148261</v>
+        <v>392.0807904713656</v>
       </c>
       <c r="AD21" t="n">
-        <v>275219.1975091488</v>
+        <v>316791.7934729005</v>
       </c>
       <c r="AE21" t="n">
-        <v>376567.0478460863</v>
+        <v>433448.5076971842</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.027767103726345e-06</v>
+        <v>5.118590515150836e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>340628.0173148261</v>
+        <v>392080.7904713656</v>
       </c>
     </row>
     <row r="22">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>275.034193478238</v>
+        <v>316.6067894419897</v>
       </c>
       <c r="AB22" t="n">
-        <v>376.3139171691924</v>
+        <v>433.1953770202904</v>
       </c>
       <c r="AC22" t="n">
-        <v>340.3990450744638</v>
+        <v>391.8518182310033</v>
       </c>
       <c r="AD22" t="n">
-        <v>275034.193478238</v>
+        <v>316606.7894419897</v>
       </c>
       <c r="AE22" t="n">
-        <v>376313.9171691924</v>
+        <v>433195.3770202904</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.035329752448224e-06</v>
+        <v>5.131375548045073e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH22" t="n">
-        <v>340399.0450744638</v>
+        <v>391851.8182310033</v>
       </c>
     </row>
     <row r="23">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>271.4284955083092</v>
+        <v>313.0010914720609</v>
       </c>
       <c r="AB23" t="n">
-        <v>371.3804421345681</v>
+        <v>428.261901985666</v>
       </c>
       <c r="AC23" t="n">
-        <v>335.9364139729684</v>
+        <v>387.3891871295078</v>
       </c>
       <c r="AD23" t="n">
-        <v>271428.4955083092</v>
+        <v>313001.0914720609</v>
       </c>
       <c r="AE23" t="n">
-        <v>371380.4421345681</v>
+        <v>428261.901985666</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.043452597371725e-06</v>
+        <v>5.145107620412958e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.657986111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>335936.4139729684</v>
+        <v>387389.1871295078</v>
       </c>
     </row>
     <row r="24">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>271.4984858279422</v>
+        <v>313.0710817916939</v>
       </c>
       <c r="AB24" t="n">
-        <v>371.476205977645</v>
+        <v>428.3576658287429</v>
       </c>
       <c r="AC24" t="n">
-        <v>336.0230382492673</v>
+        <v>387.4758114058068</v>
       </c>
       <c r="AD24" t="n">
-        <v>271498.4858279422</v>
+        <v>313071.0817916939</v>
       </c>
       <c r="AE24" t="n">
-        <v>371476.2059776449</v>
+        <v>428357.6658287429</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.04223883893488e-06</v>
+        <v>5.14305570155339e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.66015625</v>
       </c>
       <c r="AH24" t="n">
-        <v>336023.0382492673</v>
+        <v>387475.8114058069</v>
       </c>
     </row>
     <row r="25">
@@ -9740,28 +9740,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>268.554996629574</v>
+        <v>310.1275925933256</v>
       </c>
       <c r="AB25" t="n">
-        <v>367.448794198859</v>
+        <v>424.330254049957</v>
       </c>
       <c r="AC25" t="n">
-        <v>332.3799969981408</v>
+        <v>383.8327701546804</v>
       </c>
       <c r="AD25" t="n">
-        <v>268554.996629574</v>
+        <v>310127.5925933257</v>
       </c>
       <c r="AE25" t="n">
-        <v>367448.7941988591</v>
+        <v>424330.254049957</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.049521389555949e-06</v>
+        <v>5.155367214710803e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.644965277777778</v>
       </c>
       <c r="AH25" t="n">
-        <v>332379.9969981408</v>
+        <v>383832.7701546804</v>
       </c>
     </row>
     <row r="26">
@@ -9846,28 +9846,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>267.7462257957919</v>
+        <v>309.3188217595436</v>
       </c>
       <c r="AB26" t="n">
-        <v>366.3421982636274</v>
+        <v>423.2236581147254</v>
       </c>
       <c r="AC26" t="n">
-        <v>331.3790130258506</v>
+        <v>382.83178618239</v>
       </c>
       <c r="AD26" t="n">
-        <v>267746.225795792</v>
+        <v>309318.8217595436</v>
       </c>
       <c r="AE26" t="n">
-        <v>366342.1982636274</v>
+        <v>423223.6581147254</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.049334657488742e-06</v>
+        <v>5.155051534886254e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6.644965277777778</v>
       </c>
       <c r="AH26" t="n">
-        <v>331379.0130258506</v>
+        <v>382831.7861823901</v>
       </c>
     </row>
     <row r="27">
@@ -9952,28 +9952,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>266.0042972226826</v>
+        <v>307.5768931864342</v>
       </c>
       <c r="AB27" t="n">
-        <v>363.9588147414342</v>
+        <v>420.8402745925321</v>
       </c>
       <c r="AC27" t="n">
-        <v>329.2230962819157</v>
+        <v>380.6758694384552</v>
       </c>
       <c r="AD27" t="n">
-        <v>266004.2972226826</v>
+        <v>307576.8931864342</v>
       </c>
       <c r="AE27" t="n">
-        <v>363958.8147414342</v>
+        <v>420840.2745925321</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.05792433258026e-06</v>
+        <v>5.169572806815509e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6.625434027777778</v>
       </c>
       <c r="AH27" t="n">
-        <v>329223.0962819157</v>
+        <v>380675.8694384551</v>
       </c>
     </row>
     <row r="28">
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>264.9425421850761</v>
+        <v>306.5151381488278</v>
       </c>
       <c r="AB28" t="n">
-        <v>362.5060746576548</v>
+        <v>419.3875345087527</v>
       </c>
       <c r="AC28" t="n">
-        <v>327.9090036727986</v>
+        <v>379.3617768293381</v>
       </c>
       <c r="AD28" t="n">
-        <v>264942.5421850762</v>
+        <v>306515.1381488278</v>
       </c>
       <c r="AE28" t="n">
-        <v>362506.0746576548</v>
+        <v>419387.5345087526</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.057830966546656e-06</v>
+        <v>5.169414966903236e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6.625434027777778</v>
       </c>
       <c r="AH28" t="n">
-        <v>327909.0036727986</v>
+        <v>379361.7768293381</v>
       </c>
     </row>
     <row r="29">
@@ -10164,28 +10164,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>265.2165900147318</v>
+        <v>306.7891859784835</v>
       </c>
       <c r="AB29" t="n">
-        <v>362.8810389883266</v>
+        <v>419.7624988394246</v>
       </c>
       <c r="AC29" t="n">
-        <v>328.2481819340169</v>
+        <v>379.7009550905564</v>
       </c>
       <c r="AD29" t="n">
-        <v>265216.5900147318</v>
+        <v>306789.1859784835</v>
       </c>
       <c r="AE29" t="n">
-        <v>362881.0389883266</v>
+        <v>419762.4988394246</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.056430476042605e-06</v>
+        <v>5.167047368219118e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>6.629774305555555</v>
       </c>
       <c r="AH29" t="n">
-        <v>328248.1819340169</v>
+        <v>379700.9550905564</v>
       </c>
     </row>
     <row r="30">
@@ -10270,28 +10270,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>265.9671369381152</v>
+        <v>307.5397329018668</v>
       </c>
       <c r="AB30" t="n">
-        <v>363.907970400693</v>
+        <v>420.789430251791</v>
       </c>
       <c r="AC30" t="n">
-        <v>329.1771044536944</v>
+        <v>380.6298776102339</v>
       </c>
       <c r="AD30" t="n">
-        <v>265967.1369381152</v>
+        <v>307539.7329018668</v>
       </c>
       <c r="AE30" t="n">
-        <v>363907.9704006931</v>
+        <v>420789.430251791</v>
       </c>
       <c r="AF30" t="n">
-        <v>3.056523842076208e-06</v>
+        <v>5.167205208131393e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>6.629774305555555</v>
       </c>
       <c r="AH30" t="n">
-        <v>329177.1044536944</v>
+        <v>380629.8776102339</v>
       </c>
     </row>
   </sheetData>
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>679.1143928464675</v>
+        <v>739.5725485636075</v>
       </c>
       <c r="AB2" t="n">
-        <v>929.1942727050498</v>
+        <v>1011.915788582828</v>
       </c>
       <c r="AC2" t="n">
-        <v>840.5132754504316</v>
+        <v>915.3399659532114</v>
       </c>
       <c r="AD2" t="n">
-        <v>679114.3928464674</v>
+        <v>739572.5485636075</v>
       </c>
       <c r="AE2" t="n">
-        <v>929194.2727050498</v>
+        <v>1011915.788582828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.707541339294402e-06</v>
+        <v>2.957104736295686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.27430555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>840513.2754504316</v>
+        <v>915339.9659532114</v>
       </c>
     </row>
     <row r="3">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.8458231490688</v>
+        <v>440.2133215137978</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.4042540164452</v>
+        <v>602.3192873362703</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.4969006506872</v>
+        <v>544.834779913325</v>
       </c>
       <c r="AD3" t="n">
-        <v>389845.8231490689</v>
+        <v>440213.3215137979</v>
       </c>
       <c r="AE3" t="n">
-        <v>533404.2540164451</v>
+        <v>602319.2873362703</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.427878649575394e-06</v>
+        <v>4.204578412594867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.6328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>482496.9006506872</v>
+        <v>544834.779913325</v>
       </c>
     </row>
     <row r="4">
@@ -10779,28 +10779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.3458449857609</v>
+        <v>371.7081163612014</v>
       </c>
       <c r="AB4" t="n">
-        <v>453.3620030565169</v>
+        <v>508.5874434101351</v>
       </c>
       <c r="AC4" t="n">
-        <v>410.0937697823697</v>
+        <v>460.048571618031</v>
       </c>
       <c r="AD4" t="n">
-        <v>331345.8449857609</v>
+        <v>371708.1163612014</v>
       </c>
       <c r="AE4" t="n">
-        <v>453362.0030565169</v>
+        <v>508587.4434101351</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.692523893631431e-06</v>
+        <v>4.66288866642428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.784288194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>410093.7697823697</v>
+        <v>460048.571618031</v>
       </c>
     </row>
     <row r="5">
@@ -10885,28 +10885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>309.811659333196</v>
+        <v>350.0033385080443</v>
       </c>
       <c r="AB5" t="n">
-        <v>423.8979802254558</v>
+        <v>478.890008804227</v>
       </c>
       <c r="AC5" t="n">
-        <v>383.4417519372893</v>
+        <v>433.1854184902995</v>
       </c>
       <c r="AD5" t="n">
-        <v>309811.6593331959</v>
+        <v>350003.3385080443</v>
       </c>
       <c r="AE5" t="n">
-        <v>423897.9802254558</v>
+        <v>478890.008804227</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.833346070943e-06</v>
+        <v>4.906763246746645e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.398003472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>383441.7519372893</v>
+        <v>433185.4184902995</v>
       </c>
     </row>
     <row r="6">
@@ -10991,28 +10991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>298.3090941411191</v>
+        <v>328.5808871812506</v>
       </c>
       <c r="AB6" t="n">
-        <v>408.1596630722946</v>
+        <v>449.5788658070567</v>
       </c>
       <c r="AC6" t="n">
-        <v>369.205477684359</v>
+        <v>406.6716898423314</v>
       </c>
       <c r="AD6" t="n">
-        <v>298309.0941411192</v>
+        <v>328580.8871812506</v>
       </c>
       <c r="AE6" t="n">
-        <v>408159.6630722946</v>
+        <v>449578.8658070567</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.91370550271476e-06</v>
+        <v>5.045928988055431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.194010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>369205.4776843591</v>
+        <v>406671.6898423315</v>
       </c>
     </row>
     <row r="7">
@@ -11097,28 +11097,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>290.0525198769188</v>
+        <v>320.3243129170503</v>
       </c>
       <c r="AB7" t="n">
-        <v>396.8626539096668</v>
+        <v>438.281856644429</v>
       </c>
       <c r="AC7" t="n">
-        <v>358.9866392207605</v>
+        <v>396.452851378733</v>
       </c>
       <c r="AD7" t="n">
-        <v>290052.5198769188</v>
+        <v>320324.3129170503</v>
       </c>
       <c r="AE7" t="n">
-        <v>396862.6539096669</v>
+        <v>438281.856644429</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.970787743312248e-06</v>
+        <v>5.144783499009146e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.055121527777777</v>
       </c>
       <c r="AH7" t="n">
-        <v>358986.6392207606</v>
+        <v>396452.8513787331</v>
       </c>
     </row>
     <row r="8">
@@ -11203,28 +11203,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>272.9658542719432</v>
+        <v>313.2427847928121</v>
       </c>
       <c r="AB8" t="n">
-        <v>373.483924218454</v>
+        <v>428.5925974498746</v>
       </c>
       <c r="AC8" t="n">
-        <v>337.8391426790238</v>
+        <v>387.6883214827463</v>
       </c>
       <c r="AD8" t="n">
-        <v>272965.8542719432</v>
+        <v>313242.7847928121</v>
       </c>
       <c r="AE8" t="n">
-        <v>373483.924218454</v>
+        <v>428592.5974498746</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.016859196383317e-06</v>
+        <v>5.224569627139303e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.948784722222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>337839.1426790238</v>
+        <v>387688.3214827463</v>
       </c>
     </row>
     <row r="9">
@@ -11309,28 +11309,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>267.844774934985</v>
+        <v>308.1217054558539</v>
       </c>
       <c r="AB9" t="n">
-        <v>366.4770375435526</v>
+        <v>421.5857107749732</v>
       </c>
       <c r="AC9" t="n">
-        <v>331.5009834341478</v>
+        <v>381.3501622378703</v>
       </c>
       <c r="AD9" t="n">
-        <v>267844.774934985</v>
+        <v>308121.705455854</v>
       </c>
       <c r="AE9" t="n">
-        <v>366477.0375435526</v>
+        <v>421585.7107749732</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.052402791205442e-06</v>
+        <v>5.286123705025882e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.866319444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>331500.9834341478</v>
+        <v>381350.1622378703</v>
       </c>
     </row>
     <row r="10">
@@ -11415,28 +11415,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>264.5256064685984</v>
+        <v>304.8025369894673</v>
       </c>
       <c r="AB10" t="n">
-        <v>361.9356048164641</v>
+        <v>417.0442780478848</v>
       </c>
       <c r="AC10" t="n">
-        <v>327.3929786725919</v>
+        <v>377.2421574763143</v>
       </c>
       <c r="AD10" t="n">
-        <v>264525.6064685984</v>
+        <v>304802.5369894673</v>
       </c>
       <c r="AE10" t="n">
-        <v>361935.6048164641</v>
+        <v>417044.2780478848</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.071333618882443e-06</v>
+        <v>5.318907942161125e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.825086805555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>327392.9786725919</v>
+        <v>377242.1574763143</v>
       </c>
     </row>
     <row r="11">
@@ -11521,28 +11521,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>260.926266845279</v>
+        <v>301.2031973661479</v>
       </c>
       <c r="AB11" t="n">
-        <v>357.0108295521815</v>
+        <v>412.1195027836021</v>
       </c>
       <c r="AC11" t="n">
-        <v>322.9382170475668</v>
+        <v>372.7873958512893</v>
       </c>
       <c r="AD11" t="n">
-        <v>260926.266845279</v>
+        <v>301203.1973661479</v>
       </c>
       <c r="AE11" t="n">
-        <v>357010.8295521815</v>
+        <v>412119.5027836021</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.091133719258899e-06</v>
+        <v>5.353197577940333e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.781684027777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>322938.2170475668</v>
+        <v>372787.3958512893</v>
       </c>
     </row>
     <row r="12">
@@ -11627,28 +11627,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>257.8041265556484</v>
+        <v>298.0810570765205</v>
       </c>
       <c r="AB12" t="n">
-        <v>352.7389794686335</v>
+        <v>407.8476527002254</v>
       </c>
       <c r="AC12" t="n">
-        <v>319.0740663405196</v>
+        <v>368.9232451442907</v>
       </c>
       <c r="AD12" t="n">
-        <v>257804.1265556484</v>
+        <v>298081.0570765205</v>
       </c>
       <c r="AE12" t="n">
-        <v>352738.9794686335</v>
+        <v>407847.6527002254</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.105042082450164e-06</v>
+        <v>5.377283956243775e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.751302083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>319074.0663405196</v>
+        <v>368923.2451442907</v>
       </c>
     </row>
     <row r="13">
@@ -11733,28 +11733,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>255.1250934245701</v>
+        <v>295.4020239454422</v>
       </c>
       <c r="AB13" t="n">
-        <v>349.0734081480938</v>
+        <v>404.1820813796838</v>
       </c>
       <c r="AC13" t="n">
-        <v>315.7583320021493</v>
+        <v>365.60751080592</v>
       </c>
       <c r="AD13" t="n">
-        <v>255125.0934245701</v>
+        <v>295402.0239454422</v>
       </c>
       <c r="AE13" t="n">
-        <v>349073.4081480938</v>
+        <v>404182.0813796838</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.11895044564143e-06</v>
+        <v>5.40137033454722e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.720920138888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>315758.3320021493</v>
+        <v>365607.51080592</v>
       </c>
     </row>
     <row r="14">
@@ -11839,28 +11839,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>252.7365557453318</v>
+        <v>293.0134862662039</v>
       </c>
       <c r="AB14" t="n">
-        <v>345.8053055205162</v>
+        <v>400.9139787521045</v>
       </c>
       <c r="AC14" t="n">
-        <v>312.8021325025358</v>
+        <v>362.6513113063061</v>
       </c>
       <c r="AD14" t="n">
-        <v>252736.5557453318</v>
+        <v>293013.4862662039</v>
       </c>
       <c r="AE14" t="n">
-        <v>345805.3055205162</v>
+        <v>400913.9787521044</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.132086121988737e-06</v>
+        <v>5.424118580722693e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>312802.1325025358</v>
+        <v>362651.311306306</v>
       </c>
     </row>
     <row r="15">
@@ -11945,28 +11945,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>249.3159863583467</v>
+        <v>289.5929168792186</v>
       </c>
       <c r="AB15" t="n">
-        <v>341.1251315803745</v>
+        <v>396.2338048119603</v>
       </c>
       <c r="AC15" t="n">
-        <v>308.5686277945744</v>
+        <v>358.4178065983438</v>
       </c>
       <c r="AD15" t="n">
-        <v>249315.9863583467</v>
+        <v>289592.9168792187</v>
       </c>
       <c r="AE15" t="n">
-        <v>341125.1315803745</v>
+        <v>396233.8048119603</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.140199333850309e-06</v>
+        <v>5.438168968066369e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>308568.6277945744</v>
+        <v>358417.8065983438</v>
       </c>
     </row>
     <row r="16">
@@ -12051,28 +12051,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>246.4815298806209</v>
+        <v>286.7584604014929</v>
       </c>
       <c r="AB16" t="n">
-        <v>337.2469031801576</v>
+        <v>392.3555764117415</v>
       </c>
       <c r="AC16" t="n">
-        <v>305.0605320697452</v>
+        <v>354.9097108735142</v>
       </c>
       <c r="AD16" t="n">
-        <v>246481.5298806209</v>
+        <v>286758.4604014929</v>
       </c>
       <c r="AE16" t="n">
-        <v>337246.9031801576</v>
+        <v>392355.5764117415</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.155266727307514e-06</v>
+        <v>5.464262544561767e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.642795138888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>305060.5320697452</v>
+        <v>354909.7108735142</v>
       </c>
     </row>
     <row r="17">
@@ -12157,28 +12157,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>244.6553706480296</v>
+        <v>284.9323011689016</v>
       </c>
       <c r="AB17" t="n">
-        <v>334.7482715536681</v>
+        <v>389.8569447852507</v>
       </c>
       <c r="AC17" t="n">
-        <v>302.8003663388355</v>
+        <v>352.6495451426042</v>
       </c>
       <c r="AD17" t="n">
-        <v>244655.3706480296</v>
+        <v>284932.3011689016</v>
       </c>
       <c r="AE17" t="n">
-        <v>334748.2715536681</v>
+        <v>389856.9447852507</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.161255050348198e-06</v>
+        <v>5.474633068553527e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.629774305555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>302800.3663388356</v>
+        <v>352649.5451426042</v>
       </c>
     </row>
     <row r="18">
@@ -12263,28 +12263,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>241.402850690268</v>
+        <v>281.6797812111399</v>
       </c>
       <c r="AB18" t="n">
-        <v>330.2980302564075</v>
+        <v>385.4067034879877</v>
       </c>
       <c r="AC18" t="n">
-        <v>298.7748498250311</v>
+        <v>348.624028628799</v>
       </c>
       <c r="AD18" t="n">
-        <v>241402.850690268</v>
+        <v>281679.7812111399</v>
       </c>
       <c r="AE18" t="n">
-        <v>330298.0302564075</v>
+        <v>385406.7034879877</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.17014094905373e-06</v>
+        <v>5.490021588025172e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.612413194444445</v>
       </c>
       <c r="AH18" t="n">
-        <v>298774.8498250311</v>
+        <v>348624.028628799</v>
       </c>
     </row>
     <row r="19">
@@ -12369,28 +12369,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>240.1644647769265</v>
+        <v>280.4413952977985</v>
       </c>
       <c r="AB19" t="n">
-        <v>328.6036160160439</v>
+        <v>383.7122892476232</v>
       </c>
       <c r="AC19" t="n">
-        <v>297.242148101642</v>
+        <v>347.0913269054096</v>
       </c>
       <c r="AD19" t="n">
-        <v>240164.4647769265</v>
+        <v>280441.3952977984</v>
       </c>
       <c r="AE19" t="n">
-        <v>328603.6160160439</v>
+        <v>383712.2892476232</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.167822888521851e-06</v>
+        <v>5.486007191641264e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.616753472222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>297242.148101642</v>
+        <v>347091.3269054096</v>
       </c>
     </row>
     <row r="20">
@@ -12475,28 +12475,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>239.3108487411629</v>
+        <v>279.5877792620349</v>
       </c>
       <c r="AB20" t="n">
-        <v>327.4356608970311</v>
+        <v>382.5443341286099</v>
       </c>
       <c r="AC20" t="n">
-        <v>296.1856609799521</v>
+        <v>346.0348397837196</v>
       </c>
       <c r="AD20" t="n">
-        <v>239310.8487411629</v>
+        <v>279587.7792620349</v>
       </c>
       <c r="AE20" t="n">
-        <v>327435.6608970311</v>
+        <v>382544.3341286099</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.175356585250454e-06</v>
+        <v>5.499053979888963e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.6015625</v>
       </c>
       <c r="AH20" t="n">
-        <v>296185.6609799521</v>
+        <v>346034.8397837196</v>
       </c>
     </row>
     <row r="21">
@@ -12581,28 +12581,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>239.8793329661485</v>
+        <v>280.1562634870204</v>
       </c>
       <c r="AB21" t="n">
-        <v>328.2134860934098</v>
+        <v>383.322159324989</v>
       </c>
       <c r="AC21" t="n">
-        <v>296.8892516312733</v>
+        <v>346.7384304350409</v>
       </c>
       <c r="AD21" t="n">
-        <v>239879.3329661485</v>
+        <v>280156.2634870204</v>
       </c>
       <c r="AE21" t="n">
-        <v>328213.4860934098</v>
+        <v>383322.159324989</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.174777070117484e-06</v>
+        <v>5.498050380792985e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.6015625</v>
       </c>
       <c r="AH21" t="n">
-        <v>296889.2516312733</v>
+        <v>346738.4304350408</v>
       </c>
     </row>
     <row r="22">
@@ -12687,28 +12687,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>240.7288013314113</v>
+        <v>281.0057318522832</v>
       </c>
       <c r="AB22" t="n">
-        <v>329.3757661866612</v>
+        <v>384.484439418241</v>
       </c>
       <c r="AC22" t="n">
-        <v>297.9406053436955</v>
+        <v>347.7897841474631</v>
       </c>
       <c r="AD22" t="n">
-        <v>240728.8013314113</v>
+        <v>281005.7318522832</v>
       </c>
       <c r="AE22" t="n">
-        <v>329375.7661866612</v>
+        <v>384484.439418241</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.17468048426199e-06</v>
+        <v>5.49788311427699e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.6015625</v>
       </c>
       <c r="AH22" t="n">
-        <v>297940.6053436955</v>
+        <v>347789.7841474632</v>
       </c>
     </row>
   </sheetData>
@@ -12984,28 +12984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.4426565372746</v>
+        <v>336.9341437462797</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.7647002168666</v>
+        <v>461.0081599590003</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.7071568979399</v>
+        <v>417.0101882015288</v>
       </c>
       <c r="AD2" t="n">
-        <v>291442.6565372745</v>
+        <v>336934.1437462798</v>
       </c>
       <c r="AE2" t="n">
-        <v>398764.7002168666</v>
+        <v>461008.1599590003</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.697195777639196e-06</v>
+        <v>5.103674820096309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>360707.1568979399</v>
+        <v>417010.1882015287</v>
       </c>
     </row>
     <row r="3">
@@ -13090,28 +13090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.5538963743028</v>
+        <v>259.8447666245747</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.8763035210263</v>
+        <v>355.5310732377915</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.6838984131583</v>
+        <v>321.5996865989711</v>
       </c>
       <c r="AD3" t="n">
-        <v>223553.8963743027</v>
+        <v>259844.7666245747</v>
       </c>
       <c r="AE3" t="n">
-        <v>305876.3035210263</v>
+        <v>355531.0732377915</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.205142860673382e-06</v>
+        <v>6.064820006187331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>276683.8984131583</v>
+        <v>321599.6865989711</v>
       </c>
     </row>
     <row r="4">
@@ -13196,28 +13196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.812543207082</v>
+        <v>234.1886648033713</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.6558484892995</v>
+        <v>320.4272628585412</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.8248341774292</v>
+        <v>289.8461346139052</v>
       </c>
       <c r="AD4" t="n">
-        <v>197812.543207082</v>
+        <v>234188.6648033713</v>
       </c>
       <c r="AE4" t="n">
-        <v>270655.8484892995</v>
+        <v>320427.2628585412</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.37661406990474e-06</v>
+        <v>6.389280432894485e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>244824.8341774291</v>
+        <v>289846.1346139052</v>
       </c>
     </row>
     <row r="5">
@@ -13302,28 +13302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.9162020322661</v>
+        <v>224.2923236285556</v>
       </c>
       <c r="AB5" t="n">
-        <v>257.115237898164</v>
+        <v>306.8866522674059</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.576520456741</v>
+        <v>277.597820893217</v>
       </c>
       <c r="AD5" t="n">
-        <v>187916.2020322662</v>
+        <v>224292.3236285555</v>
       </c>
       <c r="AE5" t="n">
-        <v>257115.237898164</v>
+        <v>306886.6522674059</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.464774628767876e-06</v>
+        <v>6.556099181509474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.751302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>232576.520456741</v>
+        <v>277597.8208932171</v>
       </c>
     </row>
     <row r="6">
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>181.1410185133827</v>
+        <v>217.517140109672</v>
       </c>
       <c r="AB6" t="n">
-        <v>247.8451329076308</v>
+        <v>297.6165472768725</v>
       </c>
       <c r="AC6" t="n">
-        <v>224.1911412758272</v>
+        <v>269.2124417123032</v>
       </c>
       <c r="AD6" t="n">
-        <v>181141.0185133827</v>
+        <v>217517.140109672</v>
       </c>
       <c r="AE6" t="n">
-        <v>247845.1329076308</v>
+        <v>297616.5472768725</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.514998125626339e-06</v>
+        <v>6.65113284514589e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.653645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>224191.1412758272</v>
+        <v>269212.4417123032</v>
       </c>
     </row>
     <row r="7">
@@ -13514,28 +13514,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>178.8653499777264</v>
+        <v>215.2414715740158</v>
       </c>
       <c r="AB7" t="n">
-        <v>244.7314628217372</v>
+        <v>294.5028771909789</v>
       </c>
       <c r="AC7" t="n">
-        <v>221.374635492867</v>
+        <v>266.395935929343</v>
       </c>
       <c r="AD7" t="n">
-        <v>178865.3499777264</v>
+        <v>215241.4715740158</v>
       </c>
       <c r="AE7" t="n">
-        <v>244731.4628217372</v>
+        <v>294502.877190979</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.530841160043063e-06</v>
+        <v>6.681111275520465e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>221374.635492867</v>
+        <v>266395.9359293429</v>
       </c>
     </row>
     <row r="8">
@@ -13620,28 +13620,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>179.7941190029556</v>
+        <v>216.1702405992449</v>
       </c>
       <c r="AB8" t="n">
-        <v>246.0022455764527</v>
+        <v>295.7736599456944</v>
       </c>
       <c r="AC8" t="n">
-        <v>222.5241365250276</v>
+        <v>267.5454369615035</v>
       </c>
       <c r="AD8" t="n">
-        <v>179794.1190029556</v>
+        <v>216170.2405992449</v>
       </c>
       <c r="AE8" t="n">
-        <v>246002.2455764526</v>
+        <v>295773.6599456944</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.531272263020389e-06</v>
+        <v>6.681927015122495e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>222524.1365250276</v>
+        <v>267545.4369615035</v>
       </c>
     </row>
   </sheetData>
@@ -13917,28 +13917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.1516533464658</v>
+        <v>442.6348072413281</v>
       </c>
       <c r="AB2" t="n">
-        <v>540.6639249692315</v>
+        <v>605.6324709370876</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.0637187967517</v>
+        <v>547.831757921363</v>
       </c>
       <c r="AD2" t="n">
-        <v>395151.6533464658</v>
+        <v>442634.8072413281</v>
       </c>
       <c r="AE2" t="n">
-        <v>540663.9249692315</v>
+        <v>605632.4709370877</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.304720250683757e-06</v>
+        <v>4.198699769632232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.709201388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>489063.7187967518</v>
+        <v>547831.757921363</v>
       </c>
     </row>
     <row r="3">
@@ -14023,28 +14023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.2004049728252</v>
+        <v>313.186928088715</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.5413350688202</v>
+        <v>428.5161718431051</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.6047585289341</v>
+        <v>387.6191898286229</v>
       </c>
       <c r="AD3" t="n">
-        <v>275200.4049728252</v>
+        <v>313186.928088715</v>
       </c>
       <c r="AE3" t="n">
-        <v>376541.3350688202</v>
+        <v>428516.1718431051</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.895515537062226e-06</v>
+        <v>5.275000475577415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.727864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>340604.7585289341</v>
+        <v>387619.1898286229</v>
       </c>
     </row>
     <row r="4">
@@ -14129,28 +14129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.6299678671829</v>
+        <v>279.1199497126545</v>
       </c>
       <c r="AB4" t="n">
-        <v>342.9229790495364</v>
+        <v>381.9042290999646</v>
       </c>
       <c r="AC4" t="n">
-        <v>310.1948912245747</v>
+        <v>345.4558254806152</v>
       </c>
       <c r="AD4" t="n">
-        <v>250629.9678671829</v>
+        <v>279119.9497126545</v>
       </c>
       <c r="AE4" t="n">
-        <v>342922.9790495363</v>
+        <v>381904.2290999646</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.101829911938896e-06</v>
+        <v>5.650860460323717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>310194.8912245748</v>
+        <v>345455.8254806152</v>
       </c>
     </row>
     <row r="5">
@@ -14235,28 +14235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.3883257631491</v>
+        <v>266.2895080244701</v>
       </c>
       <c r="AB5" t="n">
-        <v>312.4909830908146</v>
+        <v>364.3490527430525</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.6672822485692</v>
+        <v>329.576090516362</v>
       </c>
       <c r="AD5" t="n">
-        <v>228388.325763149</v>
+        <v>266289.5080244701</v>
       </c>
       <c r="AE5" t="n">
-        <v>312490.9830908146</v>
+        <v>364349.0527430525</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.211740518444908e-06</v>
+        <v>5.851093715565876e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.966145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>282667.2822485692</v>
+        <v>329576.090516362</v>
       </c>
     </row>
     <row r="6">
@@ -14341,28 +14341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>220.6089446596705</v>
+        <v>258.5101269209915</v>
       </c>
       <c r="AB6" t="n">
-        <v>301.8468906629683</v>
+        <v>353.7049603152007</v>
       </c>
       <c r="AC6" t="n">
-        <v>273.0390470629555</v>
+        <v>319.9478553307468</v>
       </c>
       <c r="AD6" t="n">
-        <v>220608.9446596705</v>
+        <v>258510.1269209915</v>
       </c>
       <c r="AE6" t="n">
-        <v>301846.8906629683</v>
+        <v>353704.9603152007</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.273603899217522e-06</v>
+        <v>5.963795360167465e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>273039.0470629556</v>
+        <v>319947.8553307469</v>
       </c>
     </row>
     <row r="7">
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>214.5437540211517</v>
+        <v>252.4449362824694</v>
       </c>
       <c r="AB7" t="n">
-        <v>293.5482292540248</v>
+        <v>345.4062989060854</v>
       </c>
       <c r="AC7" t="n">
-        <v>265.5323982516345</v>
+        <v>312.4412065193769</v>
       </c>
       <c r="AD7" t="n">
-        <v>214543.7540211517</v>
+        <v>252444.9362824694</v>
       </c>
       <c r="AE7" t="n">
-        <v>293548.2292540247</v>
+        <v>345406.2989060854</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.317939322104563e-06</v>
+        <v>6.044564872131937e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>265532.3982516345</v>
+        <v>312441.2065193769</v>
       </c>
     </row>
     <row r="8">
@@ -14553,28 +14553,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>209.3734346282291</v>
+        <v>247.2746168895468</v>
       </c>
       <c r="AB8" t="n">
-        <v>286.4739701622384</v>
+        <v>338.332039814299</v>
       </c>
       <c r="AC8" t="n">
-        <v>259.133296518781</v>
+        <v>306.0421047865233</v>
       </c>
       <c r="AD8" t="n">
-        <v>209373.4346282291</v>
+        <v>247274.6168895468</v>
       </c>
       <c r="AE8" t="n">
-        <v>286473.9701622384</v>
+        <v>338332.039814299</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.350726913914049e-06</v>
+        <v>6.10429674377078e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.677517361111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>259133.296518781</v>
+        <v>306042.1047865233</v>
       </c>
     </row>
     <row r="9">
@@ -14659,28 +14659,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>204.490132494558</v>
+        <v>242.3913147558757</v>
       </c>
       <c r="AB9" t="n">
-        <v>279.7924207468676</v>
+        <v>331.6504903989282</v>
       </c>
       <c r="AC9" t="n">
-        <v>253.0894248019976</v>
+        <v>299.9982330697399</v>
       </c>
       <c r="AD9" t="n">
-        <v>204490.132494558</v>
+        <v>242391.3147558757</v>
       </c>
       <c r="AE9" t="n">
-        <v>279792.4207468676</v>
+        <v>331650.4903989282</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.376709533838547e-06</v>
+        <v>6.151631434503448e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.625434027777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>253089.4248019975</v>
+        <v>299998.2330697399</v>
       </c>
     </row>
     <row r="10">
@@ -14765,28 +14765,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>201.602884952458</v>
+        <v>239.5040672137757</v>
       </c>
       <c r="AB10" t="n">
-        <v>275.8419612833965</v>
+        <v>327.7000309354571</v>
       </c>
       <c r="AC10" t="n">
-        <v>249.5159916452142</v>
+        <v>296.4247999129565</v>
       </c>
       <c r="AD10" t="n">
-        <v>201602.884952458</v>
+        <v>239504.0672137757</v>
       </c>
       <c r="AE10" t="n">
-        <v>275841.9612833965</v>
+        <v>327700.0309354571</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.386504569127544e-06</v>
+        <v>6.169475861565366e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.608072916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>249515.9916452142</v>
+        <v>296424.7999129565</v>
       </c>
     </row>
     <row r="11">
@@ -14871,28 +14871,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>201.1578358620306</v>
+        <v>229.7330690535192</v>
       </c>
       <c r="AB11" t="n">
-        <v>275.233025483694</v>
+        <v>314.3309201865852</v>
       </c>
       <c r="AC11" t="n">
-        <v>248.9651718235883</v>
+        <v>284.331618330288</v>
       </c>
       <c r="AD11" t="n">
-        <v>201157.8358620306</v>
+        <v>229733.0690535193</v>
       </c>
       <c r="AE11" t="n">
-        <v>275233.0254836939</v>
+        <v>314330.9201865852</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.393309541012532e-06</v>
+        <v>6.181873042471542e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.592881944444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>248965.1718235883</v>
+        <v>284331.618330288</v>
       </c>
     </row>
     <row r="12">
@@ -14977,28 +14977,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>202.0178314971645</v>
+        <v>230.5930646886531</v>
       </c>
       <c r="AB12" t="n">
-        <v>276.4097094520133</v>
+        <v>315.5076041549045</v>
       </c>
       <c r="AC12" t="n">
-        <v>250.0295547254579</v>
+        <v>285.3960012321576</v>
       </c>
       <c r="AD12" t="n">
-        <v>202017.8314971645</v>
+        <v>230593.0646886531</v>
       </c>
       <c r="AE12" t="n">
-        <v>276409.7094520133</v>
+        <v>315507.6041549045</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.393515752281774e-06</v>
+        <v>6.182248714620215e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.592881944444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>250029.5547254579</v>
+        <v>285396.0012321576</v>
       </c>
     </row>
   </sheetData>
@@ -15274,28 +15274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.7047621008546</v>
+        <v>267.8301106231061</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.3969217157919</v>
+        <v>366.4569731850961</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.0095663802174</v>
+        <v>331.4828339899019</v>
       </c>
       <c r="AD2" t="n">
-        <v>232704.7621008546</v>
+        <v>267830.1106231061</v>
       </c>
       <c r="AE2" t="n">
-        <v>318396.9217157919</v>
+        <v>366456.9731850961</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.034871395395957e-06</v>
+        <v>5.947370097993163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.003472222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>288009.5663802174</v>
+        <v>331482.8339899019</v>
       </c>
     </row>
     <row r="3">
@@ -15380,28 +15380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.9905761198322</v>
+        <v>213.3986155295849</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.8487556890394</v>
+        <v>291.9814002499191</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.4309095321359</v>
+        <v>264.115105208622</v>
       </c>
       <c r="AD3" t="n">
-        <v>186990.5761198322</v>
+        <v>213398.6155295849</v>
       </c>
       <c r="AE3" t="n">
-        <v>255848.7556890394</v>
+        <v>291981.4002499192</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.458878065471562e-06</v>
+        <v>6.778286556193956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.022569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>231430.9095321359</v>
+        <v>264115.1052086219</v>
       </c>
     </row>
     <row r="4">
@@ -15486,28 +15486,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.553152942795</v>
+        <v>199.6784119564922</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.1488834289833</v>
+        <v>273.2088124285609</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.6609899930285</v>
+        <v>247.1341468214356</v>
       </c>
       <c r="AD4" t="n">
-        <v>164553.152942795</v>
+        <v>199678.4119564922</v>
       </c>
       <c r="AE4" t="n">
-        <v>225148.8834289833</v>
+        <v>273208.8124285609</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.604168629821651e-06</v>
+        <v>7.063009249632346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.740451388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>203660.9899930285</v>
+        <v>247134.1468214357</v>
       </c>
     </row>
     <row r="5">
@@ -15592,28 +15592,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.7733282287052</v>
+        <v>197.8985872424024</v>
       </c>
       <c r="AB5" t="n">
-        <v>222.7136487348421</v>
+        <v>270.7735777344197</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.458170680222</v>
+        <v>244.9313275086291</v>
       </c>
       <c r="AD5" t="n">
-        <v>162773.3282287052</v>
+        <v>197898.5872424024</v>
       </c>
       <c r="AE5" t="n">
-        <v>222713.6487348421</v>
+        <v>270773.5777344197</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.623197440252711e-06</v>
+        <v>7.100299586985604e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.703559027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>201458.170680222</v>
+        <v>244931.3275086291</v>
       </c>
     </row>
     <row r="6">
@@ -15698,28 +15698,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.8736955863839</v>
+        <v>198.9989546000811</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.2192198983991</v>
+        <v>272.2791488979767</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.820052245012</v>
+        <v>246.2932090734191</v>
       </c>
       <c r="AD6" t="n">
-        <v>163873.6955863839</v>
+        <v>198998.9546000811</v>
       </c>
       <c r="AE6" t="n">
-        <v>224219.2198983991</v>
+        <v>272279.1488979767</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.622749703536685e-06</v>
+        <v>7.099422167283173e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.705729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>202820.052245012</v>
+        <v>246293.2090734192</v>
       </c>
     </row>
   </sheetData>
@@ -15995,28 +15995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>736.1600000824434</v>
+        <v>807.3046046579842</v>
       </c>
       <c r="AB2" t="n">
-        <v>1007.246589199886</v>
+        <v>1104.589775858578</v>
       </c>
       <c r="AC2" t="n">
-        <v>911.1163884061144</v>
+        <v>999.1692779521215</v>
       </c>
       <c r="AD2" t="n">
-        <v>736160.0000824434</v>
+        <v>807304.6046579842</v>
       </c>
       <c r="AE2" t="n">
-        <v>1007246.589199885</v>
+        <v>1104589.775858578</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.622136872365484e-06</v>
+        <v>2.790856004555873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.80598958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>911116.3884061144</v>
+        <v>999169.2779521216</v>
       </c>
     </row>
     <row r="3">
@@ -16101,28 +16101,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.8892109476964</v>
+        <v>458.6824025432051</v>
       </c>
       <c r="AB3" t="n">
-        <v>558.0920132206166</v>
+        <v>627.5894987990547</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.8284947659004</v>
+        <v>567.6932378610659</v>
       </c>
       <c r="AD3" t="n">
-        <v>407889.2109476964</v>
+        <v>458682.4025432051</v>
       </c>
       <c r="AE3" t="n">
-        <v>558092.0132206166</v>
+        <v>627589.4987990547</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.364336040850877e-06</v>
+        <v>4.067795726000746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.784722222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>504828.4947659004</v>
+        <v>567693.2378610659</v>
       </c>
     </row>
     <row r="4">
@@ -16207,28 +16207,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.3828761195983</v>
+        <v>386.0857020796627</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.568088323941</v>
+        <v>528.2594904844494</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.4668532277809</v>
+        <v>477.8431461294643</v>
       </c>
       <c r="AD4" t="n">
-        <v>345382.8761195983</v>
+        <v>386085.7020796626</v>
       </c>
       <c r="AE4" t="n">
-        <v>472568.088323941</v>
+        <v>528259.4904844494</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.632155653105472e-06</v>
+        <v>4.528574335828286e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>427466.8532277808</v>
+        <v>477843.1461294643</v>
       </c>
     </row>
     <row r="5">
@@ -16313,28 +16313,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>322.2847747608125</v>
+        <v>362.8170085202846</v>
       </c>
       <c r="AB5" t="n">
-        <v>440.9642470285369</v>
+        <v>496.4222374141984</v>
       </c>
       <c r="AC5" t="n">
-        <v>398.8792381893402</v>
+        <v>449.0443958083727</v>
       </c>
       <c r="AD5" t="n">
-        <v>322284.7747608125</v>
+        <v>362817.0085202846</v>
       </c>
       <c r="AE5" t="n">
-        <v>440964.2470285369</v>
+        <v>496422.2374141984</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.774775818316103e-06</v>
+        <v>4.773949649853674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.486979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>398879.2381893402</v>
+        <v>449044.3958083726</v>
       </c>
     </row>
     <row r="6">
@@ -16419,28 +16419,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.8460093250107</v>
+        <v>339.3732183036099</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.5767352827849</v>
+        <v>464.3454093727147</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.246604757568</v>
+        <v>420.0289352150573</v>
       </c>
       <c r="AD6" t="n">
-        <v>308846.0093250107</v>
+        <v>339373.2183036099</v>
       </c>
       <c r="AE6" t="n">
-        <v>422576.7352827849</v>
+        <v>464345.4093727147</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.865899574880211e-06</v>
+        <v>4.930726360559829e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.248263888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>382246.604757568</v>
+        <v>420028.9352150573</v>
       </c>
     </row>
     <row r="7">
@@ -16525,28 +16525,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>299.5019931266185</v>
+        <v>330.0292021052178</v>
       </c>
       <c r="AB7" t="n">
-        <v>409.7918400912437</v>
+        <v>451.5605141811735</v>
       </c>
       <c r="AC7" t="n">
-        <v>370.6818820193945</v>
+        <v>408.4642124768836</v>
       </c>
       <c r="AD7" t="n">
-        <v>299501.9931266185</v>
+        <v>330029.2021052178</v>
       </c>
       <c r="AE7" t="n">
-        <v>409791.8400912437</v>
+        <v>451560.5141811735</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.929073607792303e-06</v>
+        <v>5.039416096973759e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>370681.8820193945</v>
+        <v>408464.2124768836</v>
       </c>
     </row>
     <row r="8">
@@ -16631,28 +16631,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>293.8257181831289</v>
+        <v>324.3529271617281</v>
       </c>
       <c r="AB8" t="n">
-        <v>402.0253102939844</v>
+        <v>443.7939843839143</v>
       </c>
       <c r="AC8" t="n">
-        <v>363.6565789255926</v>
+        <v>401.4389093830817</v>
       </c>
       <c r="AD8" t="n">
-        <v>293825.7181831289</v>
+        <v>324352.9271617281</v>
       </c>
       <c r="AE8" t="n">
-        <v>402025.3102939844</v>
+        <v>443793.9843839143</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.966882309307874e-06</v>
+        <v>5.104465257403308e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.000868055555554</v>
       </c>
       <c r="AH8" t="n">
-        <v>363656.5789255925</v>
+        <v>401438.9093830817</v>
       </c>
     </row>
     <row r="9">
@@ -16737,28 +16737,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>278.7341813713855</v>
+        <v>319.3516664768782</v>
       </c>
       <c r="AB9" t="n">
-        <v>381.3764038365422</v>
+        <v>436.9510388748531</v>
       </c>
       <c r="AC9" t="n">
-        <v>344.9783751195264</v>
+        <v>395.2490449892711</v>
       </c>
       <c r="AD9" t="n">
-        <v>278734.1813713855</v>
+        <v>319351.6664768782</v>
       </c>
       <c r="AE9" t="n">
-        <v>381376.4038365422</v>
+        <v>436951.0388748531</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.998852198690659e-06</v>
+        <v>5.15946885128551e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>344978.3751195265</v>
+        <v>395249.044989271</v>
       </c>
     </row>
     <row r="10">
@@ -16843,28 +16843,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>274.136276240577</v>
+        <v>314.7537613460697</v>
       </c>
       <c r="AB10" t="n">
-        <v>375.0853471913118</v>
+        <v>430.6599822296226</v>
       </c>
       <c r="AC10" t="n">
-        <v>339.2877280909633</v>
+        <v>389.558397960708</v>
       </c>
       <c r="AD10" t="n">
-        <v>274136.276240577</v>
+        <v>314753.7613460697</v>
       </c>
       <c r="AE10" t="n">
-        <v>375085.3471913118</v>
+        <v>430659.9822296227</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.027184795269415e-06</v>
+        <v>5.208214551252969e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.861979166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>339287.7280909633</v>
+        <v>389558.397960708</v>
       </c>
     </row>
     <row r="11">
@@ -16949,28 +16949,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>270.644826312446</v>
+        <v>311.2623114179387</v>
       </c>
       <c r="AB11" t="n">
-        <v>370.3081913677432</v>
+        <v>425.882826406054</v>
       </c>
       <c r="AC11" t="n">
-        <v>334.9664973144158</v>
+        <v>385.2371671841605</v>
       </c>
       <c r="AD11" t="n">
-        <v>270644.826312446</v>
+        <v>311262.3114179387</v>
       </c>
       <c r="AE11" t="n">
-        <v>370308.1913677432</v>
+        <v>425882.826406054</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.048529960935168e-06</v>
+        <v>5.244938507647372e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.814236111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>334966.4973144158</v>
+        <v>385237.1671841604</v>
       </c>
     </row>
     <row r="12">
@@ -17055,28 +17055,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>268.0069281263205</v>
+        <v>308.6244132318132</v>
       </c>
       <c r="AB12" t="n">
-        <v>366.6989026936317</v>
+        <v>422.2735377319425</v>
       </c>
       <c r="AC12" t="n">
-        <v>331.701674085693</v>
+        <v>381.9723439554376</v>
       </c>
       <c r="AD12" t="n">
-        <v>268006.9281263205</v>
+        <v>308624.4132318132</v>
       </c>
       <c r="AE12" t="n">
-        <v>366698.9026936317</v>
+        <v>422273.5377319425</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.061356203980956e-06</v>
+        <v>5.267005817767777e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.786024305555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>331701.674085693</v>
+        <v>381972.3439554376</v>
       </c>
     </row>
     <row r="13">
@@ -17161,28 +17161,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>265.3013383181577</v>
+        <v>305.9188234236504</v>
       </c>
       <c r="AB13" t="n">
-        <v>362.9969953559051</v>
+        <v>418.5716303942159</v>
       </c>
       <c r="AC13" t="n">
-        <v>328.3530715886196</v>
+        <v>378.6237414583642</v>
       </c>
       <c r="AD13" t="n">
-        <v>265301.3383181577</v>
+        <v>305918.8234236504</v>
       </c>
       <c r="AE13" t="n">
-        <v>362996.9953559052</v>
+        <v>418571.6303942159</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.073608137636634e-06</v>
+        <v>5.288085039375327e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH13" t="n">
-        <v>328353.0715886196</v>
+        <v>378623.7414583642</v>
       </c>
     </row>
     <row r="14">
@@ -17267,28 +17267,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>261.8914117950047</v>
+        <v>302.5088969004975</v>
       </c>
       <c r="AB14" t="n">
-        <v>358.3313834515862</v>
+        <v>413.9060184898971</v>
       </c>
       <c r="AC14" t="n">
-        <v>324.1327391362214</v>
+        <v>374.403409005966</v>
       </c>
       <c r="AD14" t="n">
-        <v>261891.4117950047</v>
+        <v>302508.8969004974</v>
       </c>
       <c r="AE14" t="n">
-        <v>358331.3834515862</v>
+        <v>413906.0184898971</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.090550264644878e-06</v>
+        <v>5.317233650504517e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.720920138888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>324132.7391362214</v>
+        <v>374403.409005966</v>
       </c>
     </row>
     <row r="15">
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>258.8409117064109</v>
+        <v>299.4583968119036</v>
       </c>
       <c r="AB15" t="n">
-        <v>354.1575546518063</v>
+        <v>409.7321896901171</v>
       </c>
       <c r="AC15" t="n">
-        <v>320.3572546990869</v>
+        <v>370.6279245688316</v>
       </c>
       <c r="AD15" t="n">
-        <v>258840.9117064109</v>
+        <v>299458.3968119036</v>
       </c>
       <c r="AE15" t="n">
-        <v>354157.5546518063</v>
+        <v>409732.1896901171</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.102802198300556e-06</v>
+        <v>5.338312872112067e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.694878472222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>320357.2546990869</v>
+        <v>370627.9245688316</v>
       </c>
     </row>
     <row r="16">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>256.3815229127918</v>
+        <v>296.9990080182878</v>
       </c>
       <c r="AB16" t="n">
-        <v>350.7925104036349</v>
+        <v>406.3671454421159</v>
       </c>
       <c r="AC16" t="n">
-        <v>317.3133655511973</v>
+        <v>367.5840354209903</v>
       </c>
       <c r="AD16" t="n">
-        <v>256381.5229127918</v>
+        <v>296999.0080182878</v>
       </c>
       <c r="AE16" t="n">
-        <v>350792.5104036349</v>
+        <v>406367.145442116</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.11246973970074e-06</v>
+        <v>5.354945695411775e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.673177083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>317313.3655511973</v>
+        <v>367584.0354209904</v>
       </c>
     </row>
     <row r="17">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>254.8178117864172</v>
+        <v>295.435296891913</v>
       </c>
       <c r="AB17" t="n">
-        <v>348.6529718544642</v>
+        <v>404.2276068929441</v>
       </c>
       <c r="AC17" t="n">
-        <v>315.3780215582975</v>
+        <v>365.6486914280902</v>
       </c>
       <c r="AD17" t="n">
-        <v>254817.8117864172</v>
+        <v>295435.2968919131</v>
       </c>
       <c r="AE17" t="n">
-        <v>348652.9718544642</v>
+        <v>404227.6068929441</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.117734242443414e-06</v>
+        <v>5.36400317344627e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.662326388888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>315378.0215582974</v>
+        <v>365648.6914280902</v>
       </c>
     </row>
     <row r="18">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>252.347973854914</v>
+        <v>292.9654589604099</v>
       </c>
       <c r="AB18" t="n">
-        <v>345.2736306350238</v>
+        <v>400.848265673502</v>
       </c>
       <c r="AC18" t="n">
-        <v>312.3211999219043</v>
+        <v>362.5918697916965</v>
       </c>
       <c r="AD18" t="n">
-        <v>252347.973854914</v>
+        <v>292965.4589604099</v>
       </c>
       <c r="AE18" t="n">
-        <v>345273.6306350238</v>
+        <v>400848.265673502</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.127497502075282e-06</v>
+        <v>5.380800678164786e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.642795138888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>312321.1999219043</v>
+        <v>362591.8697916965</v>
       </c>
     </row>
     <row r="19">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>250.1098600309329</v>
+        <v>290.7273451364287</v>
       </c>
       <c r="AB19" t="n">
-        <v>342.2113445624411</v>
+        <v>397.7859796009177</v>
       </c>
       <c r="AC19" t="n">
-        <v>309.5511741341423</v>
+        <v>359.8218440039341</v>
       </c>
       <c r="AD19" t="n">
-        <v>250109.8600309329</v>
+        <v>290727.3451364287</v>
       </c>
       <c r="AE19" t="n">
-        <v>342211.3445624411</v>
+        <v>397785.9796009177</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.133719187134806e-06</v>
+        <v>5.391504970387369e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.627604166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>309551.1741341423</v>
+        <v>359821.8440039341</v>
       </c>
     </row>
     <row r="20">
@@ -17903,28 +17903,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>247.220035644799</v>
+        <v>287.8375207502948</v>
       </c>
       <c r="AB20" t="n">
-        <v>338.2573593472805</v>
+        <v>393.8319943857551</v>
       </c>
       <c r="AC20" t="n">
-        <v>305.9745517184624</v>
+        <v>356.2452215882535</v>
       </c>
       <c r="AD20" t="n">
-        <v>247220.035644799</v>
+        <v>287837.5207502948</v>
       </c>
       <c r="AE20" t="n">
-        <v>338257.3593472805</v>
+        <v>393831.9943857551</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.140036590426016e-06</v>
+        <v>5.402373944028762e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>305974.5517184624</v>
+        <v>356245.2215882535</v>
       </c>
     </row>
     <row r="21">
@@ -18009,28 +18009,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>247.276561456675</v>
+        <v>287.8940465621707</v>
       </c>
       <c r="AB21" t="n">
-        <v>338.334700456832</v>
+        <v>393.9093354953066</v>
       </c>
       <c r="AC21" t="n">
-        <v>306.0445115010671</v>
+        <v>356.3151813708583</v>
       </c>
       <c r="AD21" t="n">
-        <v>247276.5614566749</v>
+        <v>287894.0465621707</v>
       </c>
       <c r="AE21" t="n">
-        <v>338334.700456832</v>
+        <v>393909.3354953066</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.139366562804221e-06</v>
+        <v>5.4012211740971e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.616753472222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>306044.5115010671</v>
+        <v>356315.1813708583</v>
       </c>
     </row>
     <row r="22">
@@ -18115,28 +18115,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>244.8289434282119</v>
+        <v>285.4464285337076</v>
       </c>
       <c r="AB22" t="n">
-        <v>334.9857614890039</v>
+        <v>390.5603965274768</v>
       </c>
       <c r="AC22" t="n">
-        <v>303.0151905680622</v>
+        <v>353.285860437853</v>
       </c>
       <c r="AD22" t="n">
-        <v>244828.9434282119</v>
+        <v>285446.4285337076</v>
       </c>
       <c r="AE22" t="n">
-        <v>334985.761489004</v>
+        <v>390560.3965274768</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.14683258487565e-06</v>
+        <v>5.414066324764201e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.6015625</v>
       </c>
       <c r="AH22" t="n">
-        <v>303015.1905680622</v>
+        <v>353285.860437853</v>
       </c>
     </row>
     <row r="23">
@@ -18221,28 +18221,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>245.2508227211293</v>
+        <v>275.8632830457522</v>
       </c>
       <c r="AB23" t="n">
-        <v>335.5629953495742</v>
+        <v>377.4483140923156</v>
       </c>
       <c r="AC23" t="n">
-        <v>303.5373340391326</v>
+        <v>341.4251767473802</v>
       </c>
       <c r="AD23" t="n">
-        <v>245250.8227211293</v>
+        <v>275863.2830457522</v>
       </c>
       <c r="AE23" t="n">
-        <v>335562.9953495742</v>
+        <v>377448.3140923156</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.147694048960814e-06</v>
+        <v>5.415548457533481e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.599392361111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>303537.3340391326</v>
+        <v>341425.1767473802</v>
       </c>
     </row>
     <row r="24">
@@ -18327,28 +18327,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>246.1920266964371</v>
+        <v>286.8095118019328</v>
       </c>
       <c r="AB24" t="n">
-        <v>336.8507921515784</v>
+        <v>392.4254271900523</v>
       </c>
       <c r="AC24" t="n">
-        <v>304.7022253217881</v>
+        <v>354.9728951915792</v>
       </c>
       <c r="AD24" t="n">
-        <v>246192.0266964371</v>
+        <v>286809.5118019328</v>
       </c>
       <c r="AE24" t="n">
-        <v>336850.7921515785</v>
+        <v>392425.4271900523</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.1458754025588e-06</v>
+        <v>5.41241951057611e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.603732638888889</v>
       </c>
       <c r="AH24" t="n">
-        <v>304702.2253217882</v>
+        <v>354972.8951915792</v>
       </c>
     </row>
   </sheetData>
@@ -18624,28 +18624,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.3974472184335</v>
+        <v>228.8673491501181</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.9831634942312</v>
+        <v>313.1464040218858</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.5981036801341</v>
+        <v>283.2601507258682</v>
       </c>
       <c r="AD2" t="n">
-        <v>194397.4472184335</v>
+        <v>228867.3491501181</v>
       </c>
       <c r="AE2" t="n">
-        <v>265983.1634942312</v>
+        <v>313146.4040218858</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243637510839054e-06</v>
+        <v>6.502391594052389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.664930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>240598.1036801341</v>
+        <v>283260.1507258682</v>
       </c>
     </row>
     <row r="3">
@@ -18730,28 +18730,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.760929051093</v>
+        <v>191.145490128206</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.4872189317058</v>
+        <v>261.5336923371628</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.0168597916276</v>
+        <v>236.5732838054229</v>
       </c>
       <c r="AD3" t="n">
-        <v>156760.929051093</v>
+        <v>191145.490128206</v>
       </c>
       <c r="AE3" t="n">
-        <v>214487.2189317058</v>
+        <v>261533.6923371628</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.620053419181233e-06</v>
+        <v>7.256977650630161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.866319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>194016.8597916276</v>
+        <v>236573.2838054229</v>
       </c>
     </row>
     <row r="4">
@@ -18836,28 +18836,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.8433851504437</v>
+        <v>187.2279462275568</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.1270625370011</v>
+        <v>256.173535942458</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.168269200205</v>
+        <v>231.7246932140002</v>
       </c>
       <c r="AD4" t="n">
-        <v>152843.3851504437</v>
+        <v>187227.9462275568</v>
       </c>
       <c r="AE4" t="n">
-        <v>209127.062537001</v>
+        <v>256173.535942458</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.67274706429304e-06</v>
+        <v>7.362610513084747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.768663194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>189168.269200205</v>
+        <v>231724.6932140002</v>
       </c>
     </row>
   </sheetData>
@@ -19133,28 +19133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>518.5075302303115</v>
+        <v>577.3076998416298</v>
       </c>
       <c r="AB2" t="n">
-        <v>709.4448777989148</v>
+        <v>789.8978639415224</v>
       </c>
       <c r="AC2" t="n">
-        <v>641.7364543739252</v>
+        <v>714.5111204355577</v>
       </c>
       <c r="AD2" t="n">
-        <v>518507.5302303115</v>
+        <v>577307.6998416297</v>
       </c>
       <c r="AE2" t="n">
-        <v>709444.8777989148</v>
+        <v>789897.8639415223</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.980514899412576e-06</v>
+        <v>3.507639052781998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.90494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>641736.4543739252</v>
+        <v>714511.1204355577</v>
       </c>
     </row>
     <row r="3">
@@ -19239,28 +19239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.9341993265494</v>
+        <v>374.1059549577886</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.2717477726046</v>
+        <v>511.8682719631587</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.534935353624</v>
+        <v>463.0162824986259</v>
       </c>
       <c r="AD3" t="n">
-        <v>334934.1993265494</v>
+        <v>374105.9549577886</v>
       </c>
       <c r="AE3" t="n">
-        <v>458271.7477726046</v>
+        <v>511868.2719631587</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.650538355233342e-06</v>
+        <v>4.694300380406418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.146701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>414534.9353536239</v>
+        <v>463016.2824986259</v>
       </c>
     </row>
     <row r="4">
@@ -19345,28 +19345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.2800997142646</v>
+        <v>329.3665144909322</v>
       </c>
       <c r="AB4" t="n">
-        <v>397.1740386832373</v>
+        <v>450.6537957515937</v>
       </c>
       <c r="AC4" t="n">
-        <v>359.2683058685726</v>
+        <v>407.6440299816358</v>
       </c>
       <c r="AD4" t="n">
-        <v>290280.0997142646</v>
+        <v>329366.5144909322</v>
       </c>
       <c r="AE4" t="n">
-        <v>397174.0386832373</v>
+        <v>450653.7957515938</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.887081612991542e-06</v>
+        <v>5.113236066692359e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.48046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>359268.3058685726</v>
+        <v>407644.0299816357</v>
       </c>
     </row>
     <row r="5">
@@ -19451,28 +19451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>275.1982547979205</v>
+        <v>304.6410995394163</v>
       </c>
       <c r="AB5" t="n">
-        <v>376.5383931046565</v>
+        <v>416.8233922066074</v>
       </c>
       <c r="AC5" t="n">
-        <v>340.6020973417012</v>
+        <v>377.0423526697133</v>
       </c>
       <c r="AD5" t="n">
-        <v>275198.2547979205</v>
+        <v>304641.0995394163</v>
       </c>
       <c r="AE5" t="n">
-        <v>376538.3931046565</v>
+        <v>416823.3922066074</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.003114191260815e-06</v>
+        <v>5.318738384828417e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.191840277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>340602.0973417012</v>
+        <v>377042.3526697133</v>
       </c>
     </row>
     <row r="6">
@@ -19557,28 +19557,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>265.0646988608985</v>
+        <v>294.5075436023945</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.6732148106872</v>
+        <v>402.9582139126382</v>
       </c>
       <c r="AC6" t="n">
-        <v>328.0601922042084</v>
+        <v>364.5004475322205</v>
       </c>
       <c r="AD6" t="n">
-        <v>265064.6988608985</v>
+        <v>294507.5436023945</v>
       </c>
       <c r="AE6" t="n">
-        <v>362673.2148106872</v>
+        <v>402958.2139126382</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.081530719284989e-06</v>
+        <v>5.457619882848325e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.007378472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>328060.1922042083</v>
+        <v>364500.4475322205</v>
       </c>
     </row>
     <row r="7">
@@ -19663,28 +19663,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>248.2038998092246</v>
+        <v>287.3755659319158</v>
       </c>
       <c r="AB7" t="n">
-        <v>339.6035257020705</v>
+        <v>393.1999274232408</v>
       </c>
       <c r="AC7" t="n">
-        <v>307.192241845708</v>
+        <v>355.6734782095301</v>
       </c>
       <c r="AD7" t="n">
-        <v>248203.8998092246</v>
+        <v>287375.5659319158</v>
       </c>
       <c r="AE7" t="n">
-        <v>339603.5257020705</v>
+        <v>393199.9274232407</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.133576206793419e-06</v>
+        <v>5.549796308564583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>307192.241845708</v>
+        <v>355673.4782095301</v>
       </c>
     </row>
     <row r="8">
@@ -19769,28 +19769,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>242.333676092178</v>
+        <v>281.5053422148692</v>
       </c>
       <c r="AB8" t="n">
-        <v>331.5716266364186</v>
+        <v>385.1680283575847</v>
       </c>
       <c r="AC8" t="n">
-        <v>299.9268959540382</v>
+        <v>348.4081323178591</v>
       </c>
       <c r="AD8" t="n">
-        <v>242333.676092178</v>
+        <v>281505.3422148692</v>
       </c>
       <c r="AE8" t="n">
-        <v>331571.6266364186</v>
+        <v>385168.0283575847</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.173182524247253e-06</v>
+        <v>5.619942039797989e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.805555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>299926.8959540382</v>
+        <v>348408.1323178591</v>
       </c>
     </row>
     <row r="9">
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>237.6631471376487</v>
+        <v>276.8348132603398</v>
       </c>
       <c r="AB9" t="n">
-        <v>325.1812028716396</v>
+        <v>378.7776045928024</v>
       </c>
       <c r="AC9" t="n">
-        <v>294.1463652643516</v>
+        <v>342.6276016281716</v>
       </c>
       <c r="AD9" t="n">
-        <v>237663.1471376487</v>
+        <v>276834.8132603398</v>
       </c>
       <c r="AE9" t="n">
-        <v>325181.2028716396</v>
+        <v>378777.6045928024</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.201046265169548e-06</v>
+        <v>5.669290795439581e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.746961805555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>294146.3652643516</v>
+        <v>342627.6016281716</v>
       </c>
     </row>
     <row r="10">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>234.5138391304372</v>
+        <v>273.6855052531284</v>
       </c>
       <c r="AB10" t="n">
-        <v>320.8721807185115</v>
+        <v>374.4685824396721</v>
       </c>
       <c r="AC10" t="n">
-        <v>290.248590137766</v>
+        <v>338.7298265015854</v>
       </c>
       <c r="AD10" t="n">
-        <v>234513.8391304372</v>
+        <v>273685.5052531284</v>
       </c>
       <c r="AE10" t="n">
-        <v>320872.1807185115</v>
+        <v>374468.5824396721</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.218162563164673e-06</v>
+        <v>5.699605031047987e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>290248.590137766</v>
+        <v>338729.8265015854</v>
       </c>
     </row>
     <row r="11">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>230.3252139688758</v>
+        <v>269.4968800915668</v>
       </c>
       <c r="AB11" t="n">
-        <v>315.1411189833656</v>
+        <v>368.7375207045233</v>
       </c>
       <c r="AC11" t="n">
-        <v>285.0644928910251</v>
+        <v>333.5457292548435</v>
       </c>
       <c r="AD11" t="n">
-        <v>230325.2139688758</v>
+        <v>269496.8800915668</v>
       </c>
       <c r="AE11" t="n">
-        <v>315141.1189833656</v>
+        <v>368737.5207045233</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.238463288693774e-06</v>
+        <v>5.735559124444005e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.668836805555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>285064.492891025</v>
+        <v>333545.7292548436</v>
       </c>
     </row>
     <row r="12">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>226.8650759671284</v>
+        <v>266.0367420898194</v>
       </c>
       <c r="AB12" t="n">
-        <v>310.4068055188622</v>
+        <v>364.0032072400174</v>
       </c>
       <c r="AC12" t="n">
-        <v>280.7820156589216</v>
+        <v>329.2632520227394</v>
       </c>
       <c r="AD12" t="n">
-        <v>226865.0759671284</v>
+        <v>266036.7420898195</v>
       </c>
       <c r="AE12" t="n">
-        <v>310406.8055188622</v>
+        <v>364003.2072400174</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.252693699236231e-06</v>
+        <v>5.760762238932389e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.638454861111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>280782.0156589216</v>
+        <v>329263.2520227394</v>
       </c>
     </row>
     <row r="13">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>222.8992362478358</v>
+        <v>262.0709023705268</v>
       </c>
       <c r="AB13" t="n">
-        <v>304.9805686544283</v>
+        <v>358.5769703755809</v>
       </c>
       <c r="AC13" t="n">
-        <v>275.8736512250564</v>
+        <v>324.3548875888733</v>
       </c>
       <c r="AD13" t="n">
-        <v>222899.2362478358</v>
+        <v>262070.9023705267</v>
       </c>
       <c r="AE13" t="n">
-        <v>304980.5686544284</v>
+        <v>358576.9703755808</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.268018756743494e-06</v>
+        <v>5.787904054535264e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.608072916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>275873.6512250564</v>
+        <v>324354.8875888733</v>
       </c>
     </row>
     <row r="14">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>221.2002298163514</v>
+        <v>260.3718959390423</v>
       </c>
       <c r="AB14" t="n">
-        <v>302.6559130999988</v>
+        <v>356.2523148211501</v>
       </c>
       <c r="AC14" t="n">
-        <v>273.7708575340663</v>
+        <v>322.252093897883</v>
       </c>
       <c r="AD14" t="n">
-        <v>221200.2298163514</v>
+        <v>260371.8959390423</v>
       </c>
       <c r="AE14" t="n">
-        <v>302655.9130999988</v>
+        <v>356252.3148211501</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.271700751079655e-06</v>
+        <v>5.794425140102189e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.6015625</v>
       </c>
       <c r="AH14" t="n">
-        <v>273770.8575340663</v>
+        <v>322252.093897883</v>
       </c>
     </row>
     <row r="15">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>219.4266466037612</v>
+        <v>248.9547426912773</v>
       </c>
       <c r="AB15" t="n">
-        <v>300.2292183035652</v>
+        <v>340.6308620581447</v>
       </c>
       <c r="AC15" t="n">
-        <v>271.5757630831159</v>
+        <v>308.1215306618344</v>
       </c>
       <c r="AD15" t="n">
-        <v>219426.6466037612</v>
+        <v>248954.7426912773</v>
       </c>
       <c r="AE15" t="n">
-        <v>300229.2183035652</v>
+        <v>340630.8620581446</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.27986084663547e-06</v>
+        <v>5.808877275682941e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.584201388888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>271575.7630831159</v>
+        <v>308121.5306618343</v>
       </c>
     </row>
     <row r="16">
@@ -20617,28 +20617,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>220.4284680827003</v>
+        <v>249.9565641702164</v>
       </c>
       <c r="AB16" t="n">
-        <v>301.5999546482932</v>
+        <v>342.0015984028727</v>
       </c>
       <c r="AC16" t="n">
-        <v>272.815678274944</v>
+        <v>309.3614458536626</v>
       </c>
       <c r="AD16" t="n">
-        <v>220428.4680827003</v>
+        <v>249956.5641702164</v>
       </c>
       <c r="AE16" t="n">
-        <v>301599.9546482932</v>
+        <v>342001.5984028727</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.280159386716779e-06</v>
+        <v>5.809406012350529e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.584201388888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>272815.6782749441</v>
+        <v>309361.4458536626</v>
       </c>
     </row>
   </sheetData>
@@ -20914,28 +20914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.105227152502</v>
+        <v>679.1183773154559</v>
       </c>
       <c r="AB2" t="n">
-        <v>847.0870847850216</v>
+        <v>929.1997244313026</v>
       </c>
       <c r="AC2" t="n">
-        <v>766.2422823073289</v>
+        <v>840.5182068715822</v>
       </c>
       <c r="AD2" t="n">
-        <v>619105.227152502</v>
+        <v>679118.3773154558</v>
       </c>
       <c r="AE2" t="n">
-        <v>847087.0847850216</v>
+        <v>929199.7244313025</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.792695071717326e-06</v>
+        <v>3.126303668367697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>766242.2823073289</v>
+        <v>840518.2068715822</v>
       </c>
     </row>
     <row r="3">
@@ -21020,28 +21020,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.6767493899516</v>
+        <v>411.6002648192337</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.5445257362582</v>
+        <v>563.1696408477961</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.0097499467136</v>
+        <v>509.4215207388368</v>
       </c>
       <c r="AD3" t="n">
-        <v>371676.7493899516</v>
+        <v>411600.2648192337</v>
       </c>
       <c r="AE3" t="n">
-        <v>508544.5257362581</v>
+        <v>563169.6408477961</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.495791131880147e-06</v>
+        <v>4.352441803503098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.478732638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>460009.7499467136</v>
+        <v>509421.5207388368</v>
       </c>
     </row>
     <row r="4">
@@ -21126,28 +21126,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.6568236437536</v>
+        <v>357.6655904190562</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.6320801393833</v>
+        <v>489.3738399035705</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.1514044208355</v>
+        <v>442.6686874636711</v>
       </c>
       <c r="AD4" t="n">
-        <v>317656.8236437536</v>
+        <v>357665.5904190562</v>
       </c>
       <c r="AE4" t="n">
-        <v>434632.0801393833</v>
+        <v>489373.8399035705</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.754564803170139e-06</v>
+        <v>4.803720490321756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>393151.4044208355</v>
+        <v>442668.6874636711</v>
       </c>
     </row>
     <row r="5">
@@ -21232,28 +21232,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>297.9935608157219</v>
+        <v>337.8317353904323</v>
       </c>
       <c r="AB5" t="n">
-        <v>407.7279364561381</v>
+        <v>462.2362844454784</v>
       </c>
       <c r="AC5" t="n">
-        <v>368.8149544505164</v>
+        <v>418.1211022107009</v>
       </c>
       <c r="AD5" t="n">
-        <v>297993.5608157219</v>
+        <v>337831.7353904323</v>
       </c>
       <c r="AE5" t="n">
-        <v>407727.9364561382</v>
+        <v>462236.2844454784</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.88989933811758e-06</v>
+        <v>5.039732101966181e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.322048611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>368814.9544505164</v>
+        <v>418121.1022107009</v>
       </c>
     </row>
     <row r="6">
@@ -21338,28 +21338,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>287.4073803565648</v>
+        <v>317.4140449465927</v>
       </c>
       <c r="AB6" t="n">
-        <v>393.2434573225988</v>
+        <v>434.2998996152875</v>
       </c>
       <c r="AC6" t="n">
-        <v>355.7128536763879</v>
+        <v>392.8509267397411</v>
       </c>
       <c r="AD6" t="n">
-        <v>287407.3803565648</v>
+        <v>317414.0449465927</v>
       </c>
       <c r="AE6" t="n">
-        <v>393243.4573225988</v>
+        <v>434299.8996152875</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.966536906178595e-06</v>
+        <v>5.173381328733123e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.133246527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>355712.8536763879</v>
+        <v>392850.9267397411</v>
       </c>
     </row>
     <row r="7">
@@ -21444,28 +21444,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>269.35820743299</v>
+        <v>309.2816333537209</v>
       </c>
       <c r="AB7" t="n">
-        <v>368.5477826552525</v>
+        <v>423.172775297242</v>
       </c>
       <c r="AC7" t="n">
-        <v>333.374099538696</v>
+        <v>382.7857595495927</v>
       </c>
       <c r="AD7" t="n">
-        <v>269358.20743299</v>
+        <v>309281.6333537209</v>
       </c>
       <c r="AE7" t="n">
-        <v>368547.7826552525</v>
+        <v>423172.775297242</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.023576317521717e-06</v>
+        <v>5.272853081479512e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.998697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>333374.099538696</v>
+        <v>382785.7595495927</v>
       </c>
     </row>
     <row r="8">
@@ -21550,28 +21550,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>263.4306163321075</v>
+        <v>303.3540422528385</v>
       </c>
       <c r="AB8" t="n">
-        <v>360.4373910041621</v>
+        <v>415.0623836461517</v>
       </c>
       <c r="AC8" t="n">
-        <v>326.0377522837796</v>
+        <v>375.4494122946763</v>
       </c>
       <c r="AD8" t="n">
-        <v>263430.6163321076</v>
+        <v>303354.0422528385</v>
       </c>
       <c r="AE8" t="n">
-        <v>360437.3910041621</v>
+        <v>415062.3836461516</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.06238261788849e-06</v>
+        <v>5.340527880783892e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>326037.7522837796</v>
+        <v>375449.4122946763</v>
       </c>
     </row>
     <row r="9">
@@ -21656,28 +21656,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>258.6031100712988</v>
+        <v>298.5265359920297</v>
       </c>
       <c r="AB9" t="n">
-        <v>353.8321839635783</v>
+        <v>408.4571766055678</v>
       </c>
       <c r="AC9" t="n">
-        <v>320.0629369326828</v>
+        <v>369.4745969435795</v>
       </c>
       <c r="AD9" t="n">
-        <v>258603.1100712988</v>
+        <v>298526.5359920297</v>
       </c>
       <c r="AE9" t="n">
-        <v>353832.1839635783</v>
+        <v>408457.1766055678</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.095338722220071e-06</v>
+        <v>5.398000449037361e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>320062.9369326828</v>
+        <v>369474.5969435795</v>
       </c>
     </row>
     <row r="10">
@@ -21762,28 +21762,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>254.8830928143912</v>
+        <v>294.8065187351253</v>
       </c>
       <c r="AB10" t="n">
-        <v>348.7422922369339</v>
+        <v>403.3672848790926</v>
       </c>
       <c r="AC10" t="n">
-        <v>315.4588173288263</v>
+        <v>364.8704773397712</v>
       </c>
       <c r="AD10" t="n">
-        <v>254883.0928143912</v>
+        <v>294806.5187351253</v>
       </c>
       <c r="AE10" t="n">
-        <v>348742.2922369339</v>
+        <v>403367.2848790926</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.115229388739724e-06</v>
+        <v>5.43268803461046e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.792534722222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>315458.8173288263</v>
+        <v>364870.4773397712</v>
       </c>
     </row>
     <row r="11">
@@ -21868,28 +21868,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>251.5401294138403</v>
+        <v>291.4635553345744</v>
       </c>
       <c r="AB11" t="n">
-        <v>344.1683022311659</v>
+        <v>398.7932948733222</v>
       </c>
       <c r="AC11" t="n">
-        <v>311.321362509572</v>
+        <v>360.7330225205162</v>
       </c>
       <c r="AD11" t="n">
-        <v>251540.1294138403</v>
+        <v>291463.5553345744</v>
       </c>
       <c r="AE11" t="n">
-        <v>344168.3022311659</v>
+        <v>398793.2948733222</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.134827545457617e-06</v>
+        <v>5.466865508631015e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.749131944444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>311321.362509572</v>
+        <v>360733.0225205162</v>
       </c>
     </row>
     <row r="12">
@@ -21974,28 +21974,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>248.5569968793235</v>
+        <v>288.4804228000576</v>
       </c>
       <c r="AB12" t="n">
-        <v>340.086648690923</v>
+        <v>394.7116413330772</v>
       </c>
       <c r="AC12" t="n">
-        <v>307.6292562545718</v>
+        <v>357.0409162655155</v>
       </c>
       <c r="AD12" t="n">
-        <v>248556.9968793235</v>
+        <v>288480.4228000576</v>
       </c>
       <c r="AE12" t="n">
-        <v>340086.6486909229</v>
+        <v>394711.6413330772</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.149063022476584e-06</v>
+        <v>5.491690937521567e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH12" t="n">
-        <v>307629.2562545718</v>
+        <v>357040.9162655155</v>
       </c>
     </row>
     <row r="13">
@@ -22080,28 +22080,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>244.7370833329427</v>
+        <v>284.6605092536768</v>
       </c>
       <c r="AB13" t="n">
-        <v>334.8600744540754</v>
+        <v>389.485067096227</v>
       </c>
       <c r="AC13" t="n">
-        <v>302.9014989273444</v>
+        <v>352.3131589382872</v>
       </c>
       <c r="AD13" t="n">
-        <v>244737.0833329427</v>
+        <v>284660.5092536767</v>
       </c>
       <c r="AE13" t="n">
-        <v>334860.0744540754</v>
+        <v>389485.067096227</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.164566041969843e-06</v>
+        <v>5.518726849806483e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.686197916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>302901.4989273445</v>
+        <v>352313.1589382872</v>
       </c>
     </row>
     <row r="14">
@@ -22186,28 +22186,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>242.2344326755757</v>
+        <v>282.1578585963097</v>
       </c>
       <c r="AB14" t="n">
-        <v>331.4358374155128</v>
+        <v>386.0608300576626</v>
       </c>
       <c r="AC14" t="n">
-        <v>299.8040662657942</v>
+        <v>349.2157262767366</v>
       </c>
       <c r="AD14" t="n">
-        <v>242234.4326755757</v>
+        <v>282157.8585963097</v>
       </c>
       <c r="AE14" t="n">
-        <v>331435.8374155128</v>
+        <v>386060.8300576626</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.177923989583532e-06</v>
+        <v>5.542021944039398e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.657986111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>299804.0662657942</v>
+        <v>349215.7262767366</v>
       </c>
     </row>
     <row r="15">
@@ -22292,28 +22292,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>239.4153985918197</v>
+        <v>279.3388245125536</v>
       </c>
       <c r="AB15" t="n">
-        <v>327.5787106151134</v>
+        <v>382.2037032572612</v>
       </c>
       <c r="AC15" t="n">
-        <v>296.3150582337123</v>
+        <v>345.726718244654</v>
       </c>
       <c r="AD15" t="n">
-        <v>239415.3985918197</v>
+        <v>279338.8245125536</v>
       </c>
       <c r="AE15" t="n">
-        <v>327578.7106151134</v>
+        <v>382203.7032572612</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.184944224825762e-06</v>
+        <v>5.554264621300492e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.642795138888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>296315.0582337123</v>
+        <v>345726.718244654</v>
       </c>
     </row>
     <row r="16">
@@ -22398,28 +22398,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>235.9523534159409</v>
+        <v>275.8757793366747</v>
       </c>
       <c r="AB16" t="n">
-        <v>322.8404194267079</v>
+        <v>377.4654120688533</v>
       </c>
       <c r="AC16" t="n">
-        <v>292.0289829060932</v>
+        <v>341.4406429170342</v>
       </c>
       <c r="AD16" t="n">
-        <v>235952.3534159409</v>
+        <v>275875.7793366747</v>
       </c>
       <c r="AE16" t="n">
-        <v>322840.4194267078</v>
+        <v>377465.4120688533</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.199667218180994e-06</v>
+        <v>5.579940236111952e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.612413194444445</v>
       </c>
       <c r="AH16" t="n">
-        <v>292028.9829060932</v>
+        <v>341440.6429170342</v>
       </c>
     </row>
     <row r="17">
@@ -22504,28 +22504,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>233.1439817877443</v>
+        <v>263.2358977237957</v>
       </c>
       <c r="AB17" t="n">
-        <v>318.9978814683992</v>
+        <v>360.1709684138911</v>
       </c>
       <c r="AC17" t="n">
-        <v>288.5531713774884</v>
+        <v>325.7967566915976</v>
       </c>
       <c r="AD17" t="n">
-        <v>233143.9817877443</v>
+        <v>263235.8977237957</v>
       </c>
       <c r="AE17" t="n">
-        <v>318997.8814683991</v>
+        <v>360170.9684138911</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.206882459957732e-06</v>
+        <v>5.592522987741411e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>288553.1713774884</v>
+        <v>325796.7566915976</v>
       </c>
     </row>
     <row r="18">
@@ -22610,28 +22610,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>233.9690221446844</v>
+        <v>273.8924480654183</v>
       </c>
       <c r="AB18" t="n">
-        <v>320.1267380829758</v>
+        <v>374.7517307251198</v>
       </c>
       <c r="AC18" t="n">
-        <v>289.5742915011303</v>
+        <v>338.985951512071</v>
       </c>
       <c r="AD18" t="n">
-        <v>233969.0221446844</v>
+        <v>273892.4480654183</v>
       </c>
       <c r="AE18" t="n">
-        <v>320126.7380829758</v>
+        <v>374751.7307251198</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.204542381543654e-06</v>
+        <v>5.588442095321045e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.603732638888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>289574.2915011303</v>
+        <v>338985.951512071</v>
       </c>
     </row>
     <row r="19">
@@ -22716,28 +22716,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>233.4689132659179</v>
+        <v>273.3923391866517</v>
       </c>
       <c r="AB19" t="n">
-        <v>319.4424670518011</v>
+        <v>374.0674596939448</v>
       </c>
       <c r="AC19" t="n">
-        <v>288.9553263367903</v>
+        <v>338.366986347731</v>
       </c>
       <c r="AD19" t="n">
-        <v>233468.9132659179</v>
+        <v>273392.3391866517</v>
       </c>
       <c r="AE19" t="n">
-        <v>319442.4670518012</v>
+        <v>374067.4596939448</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.204444878276402e-06</v>
+        <v>5.588272058136865e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.603732638888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>288955.3263367903</v>
+        <v>338366.986347731</v>
       </c>
     </row>
     <row r="20">
@@ -22822,28 +22822,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>233.791023439047</v>
+        <v>273.7144493597808</v>
       </c>
       <c r="AB20" t="n">
-        <v>319.8831924011741</v>
+        <v>374.508185043318</v>
       </c>
       <c r="AC20" t="n">
-        <v>289.3539894773812</v>
+        <v>338.7656494883219</v>
       </c>
       <c r="AD20" t="n">
-        <v>233791.023439047</v>
+        <v>273714.4493597808</v>
       </c>
       <c r="AE20" t="n">
-        <v>319883.1924011741</v>
+        <v>374508.185043318</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.204542381543654e-06</v>
+        <v>5.588442095321045e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.603732638888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>289353.9894773812</v>
+        <v>338765.6494883219</v>
       </c>
     </row>
     <row r="21">
@@ -22928,28 +22928,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>234.5205020150774</v>
+        <v>274.4439279358112</v>
       </c>
       <c r="AB21" t="n">
-        <v>320.8812971712218</v>
+        <v>375.5062898133662</v>
       </c>
       <c r="AC21" t="n">
-        <v>290.2568365290247</v>
+        <v>339.6684965399655</v>
       </c>
       <c r="AD21" t="n">
-        <v>234520.5020150774</v>
+        <v>274443.9279358112</v>
       </c>
       <c r="AE21" t="n">
-        <v>320881.2971712218</v>
+        <v>375506.2898133662</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.204152368474642e-06</v>
+        <v>5.587761946584319e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.603732638888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>290256.8365290247</v>
+        <v>339668.4965399655</v>
       </c>
     </row>
   </sheetData>
@@ -23225,28 +23225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>871.3638542682656</v>
+        <v>953.8925751499173</v>
       </c>
       <c r="AB2" t="n">
-        <v>1192.238467270002</v>
+        <v>1305.15790409048</v>
       </c>
       <c r="AC2" t="n">
-        <v>1078.45290127095</v>
+        <v>1180.595465524707</v>
       </c>
       <c r="AD2" t="n">
-        <v>871363.8542682657</v>
+        <v>953892.5751499173</v>
       </c>
       <c r="AE2" t="n">
-        <v>1192238.467270002</v>
+        <v>1305157.90409048</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.468906417633204e-06</v>
+        <v>2.497043556178344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90407986111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1078452.90127095</v>
+        <v>1180595.465524707</v>
       </c>
     </row>
     <row r="3">
@@ -23331,28 +23331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.1731055264274</v>
+        <v>499.5228963303759</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.8926561521007</v>
+        <v>683.469264154086</v>
       </c>
       <c r="AC3" t="n">
-        <v>567.0629008983124</v>
+        <v>618.2399168383563</v>
       </c>
       <c r="AD3" t="n">
-        <v>458173.1055264274</v>
+        <v>499522.8963303759</v>
       </c>
       <c r="AE3" t="n">
-        <v>626892.6561521007</v>
+        <v>683469.264154086</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.236204855803599e-06</v>
+        <v>3.8014000473061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.134114583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>567062.9008983123</v>
+        <v>618239.9168383563</v>
       </c>
     </row>
     <row r="4">
@@ -23437,28 +23437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.396604290022</v>
+        <v>424.6610542393989</v>
       </c>
       <c r="AB4" t="n">
-        <v>524.5801482540415</v>
+        <v>581.0399891338293</v>
       </c>
       <c r="AC4" t="n">
-        <v>474.5149551575373</v>
+        <v>525.5863480656423</v>
       </c>
       <c r="AD4" t="n">
-        <v>383396.604290022</v>
+        <v>424661.0542393989</v>
       </c>
       <c r="AE4" t="n">
-        <v>524580.1482540416</v>
+        <v>581039.9891338293</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.523435915940486e-06</v>
+        <v>4.289673812904275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.094618055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>474514.9551575372</v>
+        <v>525586.3480656423</v>
       </c>
     </row>
     <row r="5">
@@ -23543,28 +23543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>346.0428531236242</v>
+        <v>387.3925544190216</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.4710979769798</v>
+        <v>530.0475835094167</v>
       </c>
       <c r="AC5" t="n">
-        <v>428.2836809069156</v>
+        <v>479.4605860657329</v>
       </c>
       <c r="AD5" t="n">
-        <v>346042.8531236242</v>
+        <v>387392.5544190216</v>
       </c>
       <c r="AE5" t="n">
-        <v>473471.0979769797</v>
+        <v>530047.5835094167</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.674768663220995e-06</v>
+        <v>4.546929453494662e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.634548611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>428283.6809069156</v>
+        <v>479460.5860657329</v>
       </c>
     </row>
     <row r="6">
@@ -23649,28 +23649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.9259250181235</v>
+        <v>372.1050341129287</v>
       </c>
       <c r="AB6" t="n">
-        <v>452.7874500312339</v>
+        <v>509.1305237888238</v>
       </c>
       <c r="AC6" t="n">
-        <v>409.5740512914296</v>
+        <v>460.5398211675958</v>
       </c>
       <c r="AD6" t="n">
-        <v>330925.9250181235</v>
+        <v>372105.0341129287</v>
       </c>
       <c r="AE6" t="n">
-        <v>452787.4500312339</v>
+        <v>509130.5237888239</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.768128169005987e-06</v>
+        <v>4.705634425799181e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>409574.0512914296</v>
+        <v>460539.8211675958</v>
       </c>
     </row>
     <row r="7">
@@ -23755,28 +23755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>320.8343743769736</v>
+        <v>351.8467398570727</v>
       </c>
       <c r="AB7" t="n">
-        <v>438.9797452362197</v>
+        <v>481.4122318550957</v>
       </c>
       <c r="AC7" t="n">
-        <v>397.0841344628161</v>
+        <v>435.4669241131555</v>
       </c>
       <c r="AD7" t="n">
-        <v>320834.3743769736</v>
+        <v>351846.7398570728</v>
       </c>
       <c r="AE7" t="n">
-        <v>438979.7452362197</v>
+        <v>481412.2318550957</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.832971616068344e-06</v>
+        <v>4.815863988216332e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.209201388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>397084.1344628161</v>
+        <v>435466.9241131555</v>
       </c>
     </row>
     <row r="8">
@@ -23861,28 +23861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>313.8434942688622</v>
+        <v>344.8558597489613</v>
       </c>
       <c r="AB8" t="n">
-        <v>429.414514656438</v>
+        <v>471.8470012753141</v>
       </c>
       <c r="AC8" t="n">
-        <v>388.4317960646833</v>
+        <v>426.8145857150229</v>
       </c>
       <c r="AD8" t="n">
-        <v>313843.4942688622</v>
+        <v>344855.8597489613</v>
       </c>
       <c r="AE8" t="n">
-        <v>429414.514656438</v>
+        <v>471847.0012753141</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.877392671240235e-06</v>
+        <v>4.891376837941868e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.098524305555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>388431.7960646834</v>
+        <v>426814.5857150229</v>
       </c>
     </row>
     <row r="9">
@@ -23967,28 +23967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>307.6237896026136</v>
+        <v>338.6361550827127</v>
       </c>
       <c r="AB9" t="n">
-        <v>420.9044403380725</v>
+        <v>463.3369269569486</v>
       </c>
       <c r="AC9" t="n">
-        <v>380.7339112952983</v>
+        <v>419.1167009456378</v>
       </c>
       <c r="AD9" t="n">
-        <v>307623.7896026135</v>
+        <v>338636.1550827126</v>
       </c>
       <c r="AE9" t="n">
-        <v>420904.4403380725</v>
+        <v>463336.9269569486</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.917578668185992e-06</v>
+        <v>4.9596903693673e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.000868055555554</v>
       </c>
       <c r="AH9" t="n">
-        <v>380733.9112952983</v>
+        <v>419116.7009456378</v>
       </c>
     </row>
     <row r="10">
@@ -24073,28 +24073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>292.6838157490909</v>
+        <v>333.9481761899167</v>
       </c>
       <c r="AB10" t="n">
-        <v>400.4629090065536</v>
+        <v>456.922627416793</v>
       </c>
       <c r="AC10" t="n">
-        <v>362.2432910241903</v>
+        <v>413.3145731510687</v>
       </c>
       <c r="AD10" t="n">
-        <v>292683.8157490909</v>
+        <v>333948.1761899167</v>
       </c>
       <c r="AE10" t="n">
-        <v>400462.9090065536</v>
+        <v>456922.627416793</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.9456241648835e-06</v>
+        <v>5.007365854999101e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.93359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>362243.2910241903</v>
+        <v>413314.5731510687</v>
       </c>
     </row>
     <row r="11">
@@ -24179,28 +24179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>289.2335260676311</v>
+        <v>330.497886508457</v>
       </c>
       <c r="AB11" t="n">
-        <v>395.7420704483426</v>
+        <v>452.2017888585818</v>
       </c>
       <c r="AC11" t="n">
-        <v>357.9730026722364</v>
+        <v>409.0442847991148</v>
       </c>
       <c r="AD11" t="n">
-        <v>289233.5260676311</v>
+        <v>330497.886508457</v>
       </c>
       <c r="AE11" t="n">
-        <v>395742.0704483427</v>
+        <v>452201.7888585819</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.966423006394067e-06</v>
+        <v>5.042722507095168e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.885850694444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>357973.0026722364</v>
+        <v>409044.2847991149</v>
       </c>
     </row>
     <row r="12">
@@ -24285,28 +24285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>286.651060765341</v>
+        <v>327.9154212061668</v>
       </c>
       <c r="AB12" t="n">
-        <v>392.2086274914209</v>
+        <v>448.6683459016601</v>
       </c>
       <c r="AC12" t="n">
-        <v>354.7767865519049</v>
+        <v>405.8480686787834</v>
       </c>
       <c r="AD12" t="n">
-        <v>286651.060765341</v>
+        <v>327915.4212061668</v>
       </c>
       <c r="AE12" t="n">
-        <v>392208.6274914209</v>
+        <v>448668.3459016602</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.979692855502619e-06</v>
+        <v>5.065280371102161e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.853298611111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>354776.7865519049</v>
+        <v>405848.0686787834</v>
       </c>
     </row>
     <row r="13">
@@ -24391,28 +24391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>282.8048542483747</v>
+        <v>324.0692146892006</v>
       </c>
       <c r="AB13" t="n">
-        <v>386.9460780522518</v>
+        <v>443.4057964624911</v>
       </c>
       <c r="AC13" t="n">
-        <v>350.0164874451756</v>
+        <v>401.087769572054</v>
       </c>
       <c r="AD13" t="n">
-        <v>282804.8542483748</v>
+        <v>324069.2146892006</v>
       </c>
       <c r="AE13" t="n">
-        <v>386946.0780522518</v>
+        <v>443405.7964624911</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.001903383088565e-06</v>
+        <v>5.103036795964929e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.803385416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>350016.4874451756</v>
+        <v>401087.769572054</v>
       </c>
     </row>
     <row r="14">
@@ -24497,28 +24497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>281.3273131076812</v>
+        <v>322.5916735485071</v>
       </c>
       <c r="AB14" t="n">
-        <v>384.9244410790402</v>
+        <v>441.3841594892795</v>
       </c>
       <c r="AC14" t="n">
-        <v>348.1877926673019</v>
+        <v>399.2590747941804</v>
       </c>
       <c r="AD14" t="n">
-        <v>281327.3131076812</v>
+        <v>322591.673548507</v>
       </c>
       <c r="AE14" t="n">
-        <v>384924.4410790402</v>
+        <v>441384.1594892794</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.006514890934799e-06</v>
+        <v>5.110876053669487e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.792534722222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>348187.792667302</v>
+        <v>399259.0747941805</v>
       </c>
     </row>
     <row r="15">
@@ -24603,28 +24603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>278.3807527903243</v>
+        <v>319.6451132311502</v>
       </c>
       <c r="AB15" t="n">
-        <v>380.8928272597658</v>
+        <v>437.3525456700051</v>
       </c>
       <c r="AC15" t="n">
-        <v>344.5409504125336</v>
+        <v>395.612232539412</v>
       </c>
       <c r="AD15" t="n">
-        <v>278380.7527903243</v>
+        <v>319645.1132311501</v>
       </c>
       <c r="AE15" t="n">
-        <v>380892.8272597658</v>
+        <v>437352.5456700051</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.022702224599132e-06</v>
+        <v>5.138393448060996e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH15" t="n">
-        <v>344540.9504125336</v>
+        <v>395612.232539412</v>
       </c>
     </row>
     <row r="16">
@@ -24709,28 +24709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>276.1895898453678</v>
+        <v>317.4539502861936</v>
       </c>
       <c r="AB16" t="n">
-        <v>377.8947814511897</v>
+        <v>434.3544998614289</v>
       </c>
       <c r="AC16" t="n">
-        <v>341.8290338881442</v>
+        <v>392.9003160150227</v>
       </c>
       <c r="AD16" t="n">
-        <v>276189.5898453678</v>
+        <v>317453.9502861936</v>
       </c>
       <c r="AE16" t="n">
-        <v>377894.7814511897</v>
+        <v>434354.4998614289</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.029854767381047e-06</v>
+        <v>5.150552296745617e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.740451388888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>341829.0338881442</v>
+        <v>392900.3160150227</v>
       </c>
     </row>
     <row r="17">
@@ -24815,28 +24815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>272.6734715069848</v>
+        <v>313.9378319478106</v>
       </c>
       <c r="AB17" t="n">
-        <v>373.0838732204207</v>
+        <v>429.5435916306599</v>
       </c>
       <c r="AC17" t="n">
-        <v>337.4772719867677</v>
+        <v>388.5485541136462</v>
       </c>
       <c r="AD17" t="n">
-        <v>272673.4715069847</v>
+        <v>313937.8319478106</v>
       </c>
       <c r="AE17" t="n">
-        <v>373083.8732204207</v>
+        <v>429543.5916306599</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.045477426615229e-06</v>
+        <v>5.177109782030445e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.705729166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>337477.2719867677</v>
+        <v>388548.5541136462</v>
       </c>
     </row>
     <row r="18">
@@ -24921,28 +24921,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>272.2616589727771</v>
+        <v>313.526019413603</v>
       </c>
       <c r="AB18" t="n">
-        <v>372.520413143231</v>
+        <v>428.9801315534703</v>
       </c>
       <c r="AC18" t="n">
-        <v>336.9675877485238</v>
+        <v>388.0388698754023</v>
       </c>
       <c r="AD18" t="n">
-        <v>272261.6589727771</v>
+        <v>313526.0194136029</v>
       </c>
       <c r="AE18" t="n">
-        <v>372520.413143231</v>
+        <v>428980.1315534703</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.042936391679549e-06</v>
+        <v>5.172790191050383e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.712239583333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>336967.5877485239</v>
+        <v>388038.8698754023</v>
       </c>
     </row>
     <row r="19">
@@ -25027,28 +25027,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>269.8403944474879</v>
+        <v>311.1047548883138</v>
       </c>
       <c r="AB19" t="n">
-        <v>369.2075322010784</v>
+        <v>425.6672506113176</v>
       </c>
       <c r="AC19" t="n">
-        <v>333.9708835138327</v>
+        <v>385.0421656407111</v>
       </c>
       <c r="AD19" t="n">
-        <v>269840.394447488</v>
+        <v>311104.7548883138</v>
       </c>
       <c r="AE19" t="n">
-        <v>369207.5322010784</v>
+        <v>425667.2506113176</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.052441744587093e-06</v>
+        <v>5.188948661012838e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.690538194444445</v>
       </c>
       <c r="AH19" t="n">
-        <v>333970.8835138327</v>
+        <v>385042.1656407111</v>
       </c>
     </row>
     <row r="20">
@@ -25133,28 +25133,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>267.7175778106497</v>
+        <v>308.9819382514756</v>
       </c>
       <c r="AB20" t="n">
-        <v>366.3030008264959</v>
+        <v>422.7627192367352</v>
       </c>
       <c r="AC20" t="n">
-        <v>331.343556537105</v>
+        <v>382.4148386639835</v>
       </c>
       <c r="AD20" t="n">
-        <v>267717.5778106498</v>
+        <v>308981.9382514756</v>
       </c>
       <c r="AE20" t="n">
-        <v>366303.0008264959</v>
+        <v>422762.7192367352</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.059688399774033e-06</v>
+        <v>5.201267494548572e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>331343.556537105</v>
+        <v>382414.8386639834</v>
       </c>
     </row>
     <row r="21">
@@ -25239,28 +25239,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>266.5684439350619</v>
+        <v>307.8328043758877</v>
       </c>
       <c r="AB21" t="n">
-        <v>364.7307051617079</v>
+        <v>421.1904235719472</v>
       </c>
       <c r="AC21" t="n">
-        <v>329.9213185638336</v>
+        <v>380.992600690712</v>
       </c>
       <c r="AD21" t="n">
-        <v>266568.4439350619</v>
+        <v>307832.8043758877</v>
       </c>
       <c r="AE21" t="n">
-        <v>364730.7051617079</v>
+        <v>421190.4235719473</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.066746830150922e-06</v>
+        <v>5.213266358382079e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.66015625</v>
       </c>
       <c r="AH21" t="n">
-        <v>329921.3185638336</v>
+        <v>380992.600690712</v>
       </c>
     </row>
     <row r="22">
@@ -25345,28 +25345,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>263.4679593557686</v>
+        <v>304.7323197965944</v>
       </c>
       <c r="AB22" t="n">
-        <v>360.4884853765931</v>
+        <v>416.9482037868323</v>
       </c>
       <c r="AC22" t="n">
-        <v>326.0839702810171</v>
+        <v>377.1552524078957</v>
       </c>
       <c r="AD22" t="n">
-        <v>263467.9593557686</v>
+        <v>304732.3197965944</v>
       </c>
       <c r="AE22" t="n">
-        <v>360488.4853765931</v>
+        <v>416948.2037868323</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.073522923312736e-06</v>
+        <v>5.224785267662246e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.644965277777778</v>
       </c>
       <c r="AH22" t="n">
-        <v>326083.9702810171</v>
+        <v>377155.2524078956</v>
       </c>
     </row>
     <row r="23">
@@ -25451,28 +25451,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>262.8856934845941</v>
+        <v>304.1500539254199</v>
       </c>
       <c r="AB23" t="n">
-        <v>359.6918035238947</v>
+        <v>416.1515219341339</v>
       </c>
       <c r="AC23" t="n">
-        <v>325.3633226261903</v>
+        <v>376.4346047530688</v>
       </c>
       <c r="AD23" t="n">
-        <v>262885.6934845941</v>
+        <v>304150.0539254199</v>
       </c>
       <c r="AE23" t="n">
-        <v>359691.8035238947</v>
+        <v>416151.521934134</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.073711148122787e-06</v>
+        <v>5.225105237364474e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.644965277777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>325363.3226261903</v>
+        <v>376434.6047530688</v>
       </c>
     </row>
     <row r="24">
@@ -25557,28 +25557,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>260.0722928531164</v>
+        <v>301.3366532939422</v>
       </c>
       <c r="AB24" t="n">
-        <v>355.842384661431</v>
+        <v>412.3021030716702</v>
       </c>
       <c r="AC24" t="n">
-        <v>321.8812868972668</v>
+        <v>372.9525690241452</v>
       </c>
       <c r="AD24" t="n">
-        <v>260072.2928531164</v>
+        <v>301336.6532939422</v>
       </c>
       <c r="AE24" t="n">
-        <v>355842.384661431</v>
+        <v>412302.1030716702</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.080863690904701e-06</v>
+        <v>5.237264086049093e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.629774305555555</v>
       </c>
       <c r="AH24" t="n">
-        <v>321881.2868972667</v>
+        <v>372952.5690241453</v>
       </c>
     </row>
     <row r="25">
@@ -25663,28 +25663,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>259.3842271981517</v>
+        <v>300.6485876389776</v>
       </c>
       <c r="AB25" t="n">
-        <v>354.900942876994</v>
+        <v>411.3606612872333</v>
       </c>
       <c r="AC25" t="n">
-        <v>321.0296949954147</v>
+        <v>372.1009771222932</v>
       </c>
       <c r="AD25" t="n">
-        <v>259384.2271981518</v>
+        <v>300648.5876389776</v>
       </c>
       <c r="AE25" t="n">
-        <v>354900.942876994</v>
+        <v>411360.6612872333</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.080487241284601e-06</v>
+        <v>5.23662414664464e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.629774305555555</v>
       </c>
       <c r="AH25" t="n">
-        <v>321029.6949954147</v>
+        <v>372100.9771222932</v>
       </c>
     </row>
     <row r="26">
@@ -25769,28 +25769,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>258.2282742584904</v>
+        <v>299.4926346993162</v>
       </c>
       <c r="AB26" t="n">
-        <v>353.3193170679049</v>
+        <v>409.7790354781441</v>
       </c>
       <c r="AC26" t="n">
-        <v>319.5990173337192</v>
+        <v>370.6702994605977</v>
       </c>
       <c r="AD26" t="n">
-        <v>258228.2742584904</v>
+        <v>299492.6346993162</v>
       </c>
       <c r="AE26" t="n">
-        <v>353319.3170679049</v>
+        <v>409779.0354781441</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.088675020521792e-06</v>
+        <v>5.250542828691507e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6.612413194444445</v>
       </c>
       <c r="AH26" t="n">
-        <v>319599.0173337192</v>
+        <v>370670.2994605977</v>
       </c>
     </row>
     <row r="27">
@@ -25875,28 +25875,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>258.7397214979268</v>
+        <v>300.0040819387526</v>
       </c>
       <c r="AB27" t="n">
-        <v>354.0191017443615</v>
+        <v>410.4788201546008</v>
       </c>
       <c r="AC27" t="n">
-        <v>320.2320155428088</v>
+        <v>371.3032976696873</v>
       </c>
       <c r="AD27" t="n">
-        <v>258739.7214979268</v>
+        <v>300004.0819387526</v>
       </c>
       <c r="AE27" t="n">
-        <v>354019.1017443615</v>
+        <v>410478.8201546008</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.088016233686616e-06</v>
+        <v>5.249422934733713e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>320232.0155428088</v>
+        <v>371303.2976696873</v>
       </c>
     </row>
     <row r="28">
@@ -25981,28 +25981,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>259.4239801442835</v>
+        <v>300.6883405851093</v>
       </c>
       <c r="AB28" t="n">
-        <v>354.9553346116676</v>
+        <v>411.4150530219069</v>
       </c>
       <c r="AC28" t="n">
-        <v>321.0788956592704</v>
+        <v>372.1501777861488</v>
       </c>
       <c r="AD28" t="n">
-        <v>259423.9801442834</v>
+        <v>300688.3405851093</v>
       </c>
       <c r="AE28" t="n">
-        <v>354955.3346116676</v>
+        <v>411415.0530219069</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.088298570901691e-06</v>
+        <v>5.249902889287053e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6.612413194444445</v>
       </c>
       <c r="AH28" t="n">
-        <v>321078.8956592703</v>
+        <v>372150.1777861488</v>
       </c>
     </row>
   </sheetData>
@@ -26278,28 +26278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.5197177157406</v>
+        <v>488.47519817549</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.7385121370148</v>
+        <v>668.3533161485268</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.2139944874722</v>
+        <v>604.5666136950814</v>
       </c>
       <c r="AD2" t="n">
-        <v>440519.7177157406</v>
+        <v>488475.19817549</v>
       </c>
       <c r="AE2" t="n">
-        <v>602738.5121370148</v>
+        <v>668353.3161485269</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.189129177151339e-06</v>
+        <v>3.947517941806399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.09331597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>545213.9944874722</v>
+        <v>604566.6136950814</v>
       </c>
     </row>
     <row r="3">
@@ -26384,28 +26384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.4377267597519</v>
+        <v>329.8703122043679</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.7579550777738</v>
+        <v>451.3431140091029</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.7010555054553</v>
+        <v>408.2675606721124</v>
       </c>
       <c r="AD3" t="n">
-        <v>291437.7267597519</v>
+        <v>329870.3122043679</v>
       </c>
       <c r="AE3" t="n">
-        <v>398757.9550777738</v>
+        <v>451343.1140091029</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.810711132711961e-06</v>
+        <v>5.068377298800402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.860243055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>360701.0555054552</v>
+        <v>408267.5606721124</v>
       </c>
     </row>
     <row r="4">
@@ -26490,28 +26490,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.269611608669</v>
+        <v>302.5316048526929</v>
       </c>
       <c r="AB4" t="n">
-        <v>361.5853413554128</v>
+        <v>413.937088511895</v>
       </c>
       <c r="AC4" t="n">
-        <v>327.0761438646654</v>
+        <v>374.4315137486715</v>
       </c>
       <c r="AD4" t="n">
-        <v>264269.611608669</v>
+        <v>302531.6048526929</v>
       </c>
       <c r="AE4" t="n">
-        <v>361585.3413554128</v>
+        <v>413937.088511895</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.023912216240862e-06</v>
+        <v>5.452829304295152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.306857638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>327076.1438646654</v>
+        <v>374431.5137486715</v>
       </c>
     </row>
     <row r="5">
@@ -26596,28 +26596,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>250.7244708180853</v>
+        <v>279.5489994101014</v>
       </c>
       <c r="AB5" t="n">
-        <v>343.0522821561368</v>
+        <v>382.4912738243482</v>
       </c>
       <c r="AC5" t="n">
-        <v>310.3118538241593</v>
+        <v>345.986843480426</v>
       </c>
       <c r="AD5" t="n">
-        <v>250724.4708180852</v>
+        <v>279548.9994101014</v>
       </c>
       <c r="AE5" t="n">
-        <v>343052.2821561368</v>
+        <v>382491.2738243482</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.135196258407571e-06</v>
+        <v>5.653500766571063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>310311.8538241593</v>
+        <v>345986.8434804261</v>
       </c>
     </row>
     <row r="6">
@@ -26702,28 +26702,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>231.8605150341197</v>
+        <v>270.2077596241669</v>
       </c>
       <c r="AB6" t="n">
-        <v>317.2417856335339</v>
+        <v>369.7101774428183</v>
       </c>
       <c r="AC6" t="n">
-        <v>286.964674864406</v>
+        <v>334.4255569991679</v>
       </c>
       <c r="AD6" t="n">
-        <v>231860.5150341197</v>
+        <v>270207.7596241669</v>
       </c>
       <c r="AE6" t="n">
-        <v>317241.7856335339</v>
+        <v>369710.1774428183</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.211150417105069e-06</v>
+        <v>5.790464088490397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.881510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>286964.6748644061</v>
+        <v>334425.5569991679</v>
       </c>
     </row>
     <row r="7">
@@ -26808,28 +26808,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>226.4556360986027</v>
+        <v>264.8028806886499</v>
       </c>
       <c r="AB7" t="n">
-        <v>309.8465918275333</v>
+        <v>362.3149836368139</v>
       </c>
       <c r="AC7" t="n">
-        <v>280.2752679760281</v>
+        <v>327.7361501107889</v>
       </c>
       <c r="AD7" t="n">
-        <v>226455.6360986027</v>
+        <v>264802.8806886498</v>
       </c>
       <c r="AE7" t="n">
-        <v>309846.5918275333</v>
+        <v>362314.9836368139</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.251672877107219e-06</v>
+        <v>5.863535673106878e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.794704861111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>280275.2679760281</v>
+        <v>327736.1501107889</v>
       </c>
     </row>
     <row r="8">
@@ -26914,28 +26914,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>221.0319773089883</v>
+        <v>259.3792218990354</v>
       </c>
       <c r="AB8" t="n">
-        <v>302.425702596648</v>
+        <v>354.8940944059248</v>
       </c>
       <c r="AC8" t="n">
-        <v>273.5626179980528</v>
+        <v>321.0235001328124</v>
       </c>
       <c r="AD8" t="n">
-        <v>221031.9773089883</v>
+        <v>259379.2218990354</v>
       </c>
       <c r="AE8" t="n">
-        <v>302425.702596648</v>
+        <v>354894.0944059248</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.285882793088934e-06</v>
+        <v>5.925224247054459e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.725260416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>273562.6179980527</v>
+        <v>321023.5001328124</v>
       </c>
     </row>
     <row r="9">
@@ -27020,28 +27020,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>216.5612646859443</v>
+        <v>254.9085092759881</v>
       </c>
       <c r="AB9" t="n">
-        <v>296.3086763518813</v>
+        <v>348.7770681609858</v>
       </c>
       <c r="AC9" t="n">
-        <v>268.0293921527845</v>
+        <v>315.4902742874951</v>
       </c>
       <c r="AD9" t="n">
-        <v>216561.2646859442</v>
+        <v>254908.5092759881</v>
       </c>
       <c r="AE9" t="n">
-        <v>296308.6763518814</v>
+        <v>348777.0681609858</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.311438414849084e-06</v>
+        <v>5.971307080568873e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.673177083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>268029.3921527845</v>
+        <v>315490.2742874951</v>
       </c>
     </row>
     <row r="10">
@@ -27126,28 +27126,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>212.5723574360784</v>
+        <v>250.9196020261222</v>
       </c>
       <c r="AB10" t="n">
-        <v>290.8508774744497</v>
+        <v>343.3192692835541</v>
       </c>
       <c r="AC10" t="n">
-        <v>263.0924779401442</v>
+        <v>310.5533600748549</v>
       </c>
       <c r="AD10" t="n">
-        <v>212572.3574360784</v>
+        <v>250919.6020261222</v>
       </c>
       <c r="AE10" t="n">
-        <v>290850.8774744497</v>
+        <v>343319.2692835542</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.329256079422893e-06</v>
+        <v>6.00343654616657e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.636284722222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>263092.4779401442</v>
+        <v>310553.3600748549</v>
       </c>
     </row>
     <row r="11">
@@ -27232,28 +27232,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>208.8063872221687</v>
+        <v>247.1536318122126</v>
       </c>
       <c r="AB11" t="n">
-        <v>285.698110884901</v>
+        <v>338.1665026940054</v>
       </c>
       <c r="AC11" t="n">
-        <v>258.4314841619471</v>
+        <v>305.8923662966577</v>
       </c>
       <c r="AD11" t="n">
-        <v>208806.3872221687</v>
+        <v>247153.6318122126</v>
       </c>
       <c r="AE11" t="n">
-        <v>285698.110884901</v>
+        <v>338166.5026940054</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.344630178569438e-06</v>
+        <v>6.031159685053728e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.605902777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>258431.4841619471</v>
+        <v>305892.3662966577</v>
       </c>
     </row>
     <row r="12">
@@ -27338,28 +27338,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>207.3920956321002</v>
+        <v>236.3018755701334</v>
       </c>
       <c r="AB12" t="n">
-        <v>283.7630147372287</v>
+        <v>323.318651057903</v>
       </c>
       <c r="AC12" t="n">
-        <v>256.6810708746836</v>
+        <v>292.4615727816095</v>
       </c>
       <c r="AD12" t="n">
-        <v>207392.0956321002</v>
+        <v>236301.8755701334</v>
       </c>
       <c r="AE12" t="n">
-        <v>283763.0147372287</v>
+        <v>323318.651057903</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.348499157162608e-06</v>
+        <v>6.038136369012085e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.599392361111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>256681.0708746836</v>
+        <v>292461.5727816095</v>
       </c>
     </row>
     <row r="13">
@@ -27444,28 +27444,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>207.5119815133305</v>
+        <v>236.4217614513638</v>
       </c>
       <c r="AB13" t="n">
-        <v>283.92704788892</v>
+        <v>323.4826842095941</v>
       </c>
       <c r="AC13" t="n">
-        <v>256.8294489325993</v>
+        <v>292.6099508395252</v>
       </c>
       <c r="AD13" t="n">
-        <v>207511.9815133305</v>
+        <v>236421.7614513638</v>
       </c>
       <c r="AE13" t="n">
-        <v>283927.0478889199</v>
+        <v>323482.6842095941</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.349110048519424e-06</v>
+        <v>6.03923795068972e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>256829.4489325993</v>
+        <v>292609.9508395252</v>
       </c>
     </row>
   </sheetData>
@@ -27741,28 +27741,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.3582071176493</v>
+        <v>368.3651786241053</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.3789174707453</v>
+        <v>504.013488518236</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.1090699086438</v>
+        <v>455.9111485614287</v>
       </c>
       <c r="AD2" t="n">
-        <v>331358.2071176493</v>
+        <v>368365.1786241053</v>
       </c>
       <c r="AE2" t="n">
-        <v>453378.9174707453</v>
+        <v>504013.488518236</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.552809204359373e-06</v>
+        <v>4.762725988411198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.016927083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>410109.0699086438</v>
+        <v>455911.1485614287</v>
       </c>
     </row>
     <row r="3">
@@ -27847,28 +27847,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.8322148111563</v>
+        <v>278.6685046084721</v>
       </c>
       <c r="AB3" t="n">
-        <v>330.8855051888146</v>
+        <v>381.2865419920698</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.3062569744159</v>
+        <v>344.8970895633686</v>
       </c>
       <c r="AD3" t="n">
-        <v>241832.2148111563</v>
+        <v>278668.5046084721</v>
       </c>
       <c r="AE3" t="n">
-        <v>330885.5051888146</v>
+        <v>381286.5419920698</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.085537107703666e-06</v>
+        <v>5.756625973446073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.458767361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>299306.2569744159</v>
+        <v>344897.0895633686</v>
       </c>
     </row>
     <row r="4">
@@ -27953,28 +27953,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.8123197032858</v>
+        <v>250.5675707102652</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.8616456036878</v>
+        <v>342.8376045066732</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.7660780233688</v>
+        <v>310.1176647082585</v>
       </c>
       <c r="AD4" t="n">
-        <v>222812.3197032858</v>
+        <v>250567.5707102652</v>
       </c>
       <c r="AE4" t="n">
-        <v>304861.6456036878</v>
+        <v>342837.6045066732</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.269229070393754e-06</v>
+        <v>6.099336460023896e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH4" t="n">
-        <v>275766.0780233688</v>
+        <v>310117.6647082585</v>
       </c>
     </row>
     <row r="5">
@@ -28059,28 +28059,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.1883860999166</v>
+        <v>239.1099272432494</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.6430697838366</v>
+        <v>327.1607512395551</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.2406434747354</v>
+        <v>295.9369883143473</v>
       </c>
       <c r="AD5" t="n">
-        <v>202188.3860999166</v>
+        <v>239109.9272432494</v>
       </c>
       <c r="AE5" t="n">
-        <v>276643.0697838365</v>
+        <v>327160.7512395551</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.373165631269209e-06</v>
+        <v>6.293248860050608e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>250240.6434747353</v>
+        <v>295936.9883143473</v>
       </c>
     </row>
     <row r="6">
@@ -28165,28 +28165,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>195.0798295288204</v>
+        <v>232.0013706721533</v>
       </c>
       <c r="AB6" t="n">
-        <v>266.916829075885</v>
+        <v>317.4345105316035</v>
       </c>
       <c r="AC6" t="n">
-        <v>241.442661529083</v>
+        <v>287.139006368695</v>
       </c>
       <c r="AD6" t="n">
-        <v>195079.8295288204</v>
+        <v>232001.3706721533</v>
       </c>
       <c r="AE6" t="n">
-        <v>266916.829075885</v>
+        <v>317434.5105316035</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.427042950580159e-06</v>
+        <v>6.393766716390986e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.716579861111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>241442.661529083</v>
+        <v>287139.0063686951</v>
       </c>
     </row>
     <row r="7">
@@ -28271,28 +28271,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>189.296623690614</v>
+        <v>226.2181648339469</v>
       </c>
       <c r="AB7" t="n">
-        <v>259.00399171102</v>
+        <v>309.5216731667386</v>
       </c>
       <c r="AC7" t="n">
-        <v>234.2850142565813</v>
+        <v>279.9813590961933</v>
       </c>
       <c r="AD7" t="n">
-        <v>189296.623690614</v>
+        <v>226218.1648339469</v>
       </c>
       <c r="AE7" t="n">
-        <v>259003.9917110201</v>
+        <v>309521.6731667386</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.466178247481223e-06</v>
+        <v>6.466780671094922e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>234285.0142565813</v>
+        <v>279981.3590961933</v>
       </c>
     </row>
     <row r="8">
@@ -28377,28 +28377,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>186.4442768089407</v>
+        <v>223.3658179522736</v>
       </c>
       <c r="AB8" t="n">
-        <v>255.1012848708534</v>
+        <v>305.6189663265719</v>
       </c>
       <c r="AC8" t="n">
-        <v>230.7547762797554</v>
+        <v>276.4511211193674</v>
       </c>
       <c r="AD8" t="n">
-        <v>186444.2768089407</v>
+        <v>223365.8179522736</v>
       </c>
       <c r="AE8" t="n">
-        <v>255101.2848708534</v>
+        <v>305618.9663265719</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.483147481909867e-06</v>
+        <v>6.498439838446221e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.608072916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>230754.7762797554</v>
+        <v>276451.1211193674</v>
       </c>
     </row>
     <row r="9">
@@ -28483,28 +28483,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>187.3012803134924</v>
+        <v>224.2228214568253</v>
       </c>
       <c r="AB9" t="n">
-        <v>256.2738748741066</v>
+        <v>306.7915563298251</v>
       </c>
       <c r="AC9" t="n">
-        <v>231.8154559388389</v>
+        <v>277.511800778451</v>
       </c>
       <c r="AD9" t="n">
-        <v>187301.2803134924</v>
+        <v>224222.8214568253</v>
       </c>
       <c r="AE9" t="n">
-        <v>256273.8748741066</v>
+        <v>306791.5563298251</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.482617193333973e-06</v>
+        <v>6.497450489466493e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.608072916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>231815.4559388389</v>
+        <v>277511.800778451</v>
       </c>
     </row>
   </sheetData>
@@ -53681,28 +53681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.6792194980535</v>
+        <v>297.4612587380037</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.0410525896342</v>
+        <v>406.9996172698938</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.8701170442521</v>
+        <v>368.1561450252049</v>
       </c>
       <c r="AD2" t="n">
-        <v>261679.2194980535</v>
+        <v>297461.2587380037</v>
       </c>
       <c r="AE2" t="n">
-        <v>358041.0525896342</v>
+        <v>406999.6172698938</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.857663862964818e-06</v>
+        <v>5.495393580967138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.331163194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>323870.1170442521</v>
+        <v>368156.1450252049</v>
       </c>
     </row>
     <row r="3">
@@ -53787,28 +53787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.0582709728016</v>
+        <v>232.9588284208304</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.9380169941865</v>
+        <v>318.7445464633977</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.0302483548363</v>
+        <v>288.3240143098062</v>
       </c>
       <c r="AD3" t="n">
-        <v>206058.2709728016</v>
+        <v>232958.8284208304</v>
       </c>
       <c r="AE3" t="n">
-        <v>281938.0169941865</v>
+        <v>318744.5464633977</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.321744875762498e-06</v>
+        <v>6.387838578375323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.16796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>255030.2483548363</v>
+        <v>288324.0143098062</v>
       </c>
     </row>
     <row r="4">
@@ -53893,28 +53893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.743204696992</v>
+        <v>217.5251544283907</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.6690706106241</v>
+        <v>297.6275128213101</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.9364435208509</v>
+        <v>269.22236072057</v>
       </c>
       <c r="AD4" t="n">
-        <v>181743.204696992</v>
+        <v>217525.1544283907</v>
       </c>
       <c r="AE4" t="n">
-        <v>248669.0706106241</v>
+        <v>297627.5128213101</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.484228086153365e-06</v>
+        <v>6.700299817420601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.833767361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>224936.4435208509</v>
+        <v>269222.36072057</v>
       </c>
     </row>
     <row r="5">
@@ -53999,28 +53999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.279800437172</v>
+        <v>209.0617501685707</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.0890675233</v>
+        <v>286.0475097339861</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.461619675541</v>
+        <v>258.74753687526</v>
       </c>
       <c r="AD5" t="n">
-        <v>173279.800437172</v>
+        <v>209061.7501685707</v>
       </c>
       <c r="AE5" t="n">
-        <v>237089.0675233</v>
+        <v>286047.5097339861</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.559819532445942e-06</v>
+        <v>6.845664971844769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.688368055555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>214461.619675541</v>
+        <v>258747.53687526</v>
       </c>
     </row>
     <row r="6">
@@ -54105,28 +54105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.4507906879623</v>
+        <v>207.232740419361</v>
       </c>
       <c r="AB6" t="n">
-        <v>234.5865356942172</v>
+        <v>283.5449779049032</v>
       </c>
       <c r="AC6" t="n">
-        <v>212.1979259718995</v>
+        <v>256.4838431716186</v>
       </c>
       <c r="AD6" t="n">
-        <v>171450.7906879623</v>
+        <v>207232.740419361</v>
       </c>
       <c r="AE6" t="n">
-        <v>234586.5356942172</v>
+        <v>283544.9779049032</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.576824865066189e-06</v>
+        <v>6.87836685709259e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.655815972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>212197.9259718995</v>
+        <v>256483.8431716186</v>
       </c>
     </row>
     <row r="7">
@@ -54211,28 +54211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>172.3355741235836</v>
+        <v>208.1175238549824</v>
       </c>
       <c r="AB7" t="n">
-        <v>235.797135424724</v>
+        <v>284.7555776354101</v>
       </c>
       <c r="AC7" t="n">
-        <v>213.2929877632146</v>
+        <v>257.5789049629336</v>
       </c>
       <c r="AD7" t="n">
-        <v>172335.5741235836</v>
+        <v>208117.5238549823</v>
       </c>
       <c r="AE7" t="n">
-        <v>235797.135424724</v>
+        <v>284755.5776354101</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.577921983299753e-06</v>
+        <v>6.880476656140835e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.653645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>213292.9877632146</v>
+        <v>257578.9049629336</v>
       </c>
     </row>
   </sheetData>
@@ -54508,28 +54508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.6834121304276</v>
+        <v>196.1210869302454</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.5906215623605</v>
+        <v>268.3415233895486</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.3468850484122</v>
+        <v>242.731385017022</v>
       </c>
       <c r="AD2" t="n">
-        <v>162683.4121304276</v>
+        <v>196121.0869302455</v>
       </c>
       <c r="AE2" t="n">
-        <v>222590.6215623605</v>
+        <v>268341.5233895486</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.499185418994583e-06</v>
+        <v>7.21741747054063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.302517361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>201346.8850484123</v>
+        <v>242731.385017022</v>
       </c>
     </row>
     <row r="3">
@@ -54614,28 +54614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.0086769928449</v>
+        <v>174.5316031386834</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.9342927253072</v>
+        <v>238.8018392051445</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.520914612639</v>
+        <v>216.010926831961</v>
       </c>
       <c r="AD3" t="n">
-        <v>141008.6769928449</v>
+        <v>174531.6031386834</v>
       </c>
       <c r="AE3" t="n">
-        <v>192934.2927253072</v>
+        <v>238801.8392051445</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.706197397948429e-06</v>
+        <v>7.644400237844791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.89453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>174520.914612639</v>
+        <v>216010.926831961</v>
       </c>
     </row>
   </sheetData>
@@ -54911,28 +54911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>570.6547384321645</v>
+        <v>629.9455020526966</v>
       </c>
       <c r="AB2" t="n">
-        <v>780.7949886331496</v>
+        <v>861.9192271426442</v>
       </c>
       <c r="AC2" t="n">
-        <v>706.2770107706503</v>
+        <v>779.6588658153823</v>
       </c>
       <c r="AD2" t="n">
-        <v>570654.7384321645</v>
+        <v>629945.5020526967</v>
       </c>
       <c r="AE2" t="n">
-        <v>780794.9886331497</v>
+        <v>861919.2271426442</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.887206143516907e-06</v>
+        <v>3.315746748074504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.32378472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>706277.0107706503</v>
+        <v>779658.8658153823</v>
       </c>
     </row>
     <row r="3">
@@ -55017,28 +55017,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.0497674450554</v>
+        <v>392.6054199797844</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.0582672748049</v>
+        <v>537.1800561450499</v>
       </c>
       <c r="AC3" t="n">
-        <v>436.955864222633</v>
+        <v>485.9123455235094</v>
       </c>
       <c r="AD3" t="n">
-        <v>353049.7674450554</v>
+        <v>392605.4199797844</v>
       </c>
       <c r="AE3" t="n">
-        <v>483058.2672748049</v>
+        <v>537180.0561450499</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.571618724264272e-06</v>
+        <v>4.518232653893634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.309461805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>436955.864222633</v>
+        <v>485912.3455235094</v>
       </c>
     </row>
     <row r="4">
@@ -55123,28 +55123,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.6799731940905</v>
+        <v>343.3208770748401</v>
       </c>
       <c r="AB4" t="n">
-        <v>415.5083367390309</v>
+        <v>469.7467702619252</v>
       </c>
       <c r="AC4" t="n">
-        <v>375.8528042502704</v>
+        <v>424.9147978018591</v>
       </c>
       <c r="AD4" t="n">
-        <v>303679.9731940905</v>
+        <v>343320.8770748401</v>
       </c>
       <c r="AE4" t="n">
-        <v>415508.3367390309</v>
+        <v>469746.7702619252</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.82027221583076e-06</v>
+        <v>4.955107029748786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>375852.8042502704</v>
+        <v>424914.7978018591</v>
       </c>
     </row>
     <row r="5">
@@ -55229,28 +55229,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.9905395517906</v>
+        <v>315.7213069709038</v>
       </c>
       <c r="AB5" t="n">
-        <v>391.304873226902</v>
+        <v>431.9838208386211</v>
       </c>
       <c r="AC5" t="n">
-        <v>353.9592853259646</v>
+        <v>390.7558912708828</v>
       </c>
       <c r="AD5" t="n">
-        <v>285990.5395517906</v>
+        <v>315721.3069709038</v>
       </c>
       <c r="AE5" t="n">
-        <v>391304.873226902</v>
+        <v>431983.8208386211</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.949079648293718e-06</v>
+        <v>5.181416607419494e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.24609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>353959.2853259646</v>
+        <v>390755.8912708828</v>
       </c>
     </row>
     <row r="6">
@@ -55335,28 +55335,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>275.7510267739333</v>
+        <v>305.4817941930465</v>
       </c>
       <c r="AB6" t="n">
-        <v>377.2947201088158</v>
+        <v>417.9736677205348</v>
       </c>
       <c r="AC6" t="n">
-        <v>341.2862415580951</v>
+        <v>378.0828475030132</v>
       </c>
       <c r="AD6" t="n">
-        <v>275751.0267739333</v>
+        <v>305481.7941930465</v>
       </c>
       <c r="AE6" t="n">
-        <v>377294.7201088158</v>
+        <v>417973.6677205348</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.027467046031114e-06</v>
+        <v>5.319140173035613e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.059461805555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>341286.2415580951</v>
+        <v>378082.8475030132</v>
       </c>
     </row>
     <row r="7">
@@ -55441,28 +55441,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>258.7181765776814</v>
+        <v>298.2737396038594</v>
       </c>
       <c r="AB7" t="n">
-        <v>353.9896230339871</v>
+        <v>408.1112894346836</v>
       </c>
       <c r="AC7" t="n">
-        <v>320.2053502391789</v>
+        <v>369.1617207588288</v>
       </c>
       <c r="AD7" t="n">
-        <v>258718.1765776814</v>
+        <v>298273.7396038594</v>
       </c>
       <c r="AE7" t="n">
-        <v>353989.6230339871</v>
+        <v>408111.2894346836</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.077099267714088e-06</v>
+        <v>5.406342028651849e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>320205.3502391789</v>
+        <v>369161.7207588288</v>
       </c>
     </row>
     <row r="8">
@@ -55547,28 +55547,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>253.6180625247183</v>
+        <v>293.1736255508994</v>
       </c>
       <c r="AB8" t="n">
-        <v>347.0114219854067</v>
+        <v>401.1330883862716</v>
       </c>
       <c r="AC8" t="n">
-        <v>313.8931389048127</v>
+        <v>362.8495094245105</v>
       </c>
       <c r="AD8" t="n">
-        <v>253618.0625247183</v>
+        <v>293173.6255508994</v>
       </c>
       <c r="AE8" t="n">
-        <v>347011.4219854067</v>
+        <v>401133.0883862716</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.114421910606642e-06</v>
+        <v>5.47191643991882e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.861979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>313893.1389048127</v>
+        <v>362849.5094245105</v>
       </c>
     </row>
     <row r="9">
@@ -55653,28 +55653,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>248.7659146481369</v>
+        <v>288.3214776743179</v>
       </c>
       <c r="AB9" t="n">
-        <v>340.3724991990147</v>
+        <v>394.4941655998762</v>
       </c>
       <c r="AC9" t="n">
-        <v>307.8878255913651</v>
+        <v>356.8441961110619</v>
       </c>
       <c r="AD9" t="n">
-        <v>248765.9146481369</v>
+        <v>288321.4776743179</v>
       </c>
       <c r="AE9" t="n">
-        <v>340372.4991990147</v>
+        <v>394494.1655998761</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.14278318013977e-06</v>
+        <v>5.521746071699526e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.799045138888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>307887.8255913651</v>
+        <v>356844.196111062</v>
       </c>
     </row>
     <row r="10">
@@ -55759,28 +55759,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>244.7181567156789</v>
+        <v>284.2737197418598</v>
       </c>
       <c r="AB10" t="n">
-        <v>334.8341782213516</v>
+        <v>388.9558446222101</v>
       </c>
       <c r="AC10" t="n">
-        <v>302.8780741947261</v>
+        <v>351.8344447144221</v>
       </c>
       <c r="AD10" t="n">
-        <v>244718.1567156789</v>
+        <v>284273.7197418598</v>
       </c>
       <c r="AE10" t="n">
-        <v>334834.1782213516</v>
+        <v>388955.8446222101</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.169273393696755e-06</v>
+        <v>5.568288331939145e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.742621527777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>302878.0741947261</v>
+        <v>351834.4447144222</v>
       </c>
     </row>
     <row r="11">
@@ -55865,28 +55865,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>241.4083662781981</v>
+        <v>280.9639293043791</v>
       </c>
       <c r="AB11" t="n">
-        <v>330.305576927144</v>
+        <v>384.4272433280003</v>
       </c>
       <c r="AC11" t="n">
-        <v>298.7816762521044</v>
+        <v>347.7380467717999</v>
       </c>
       <c r="AD11" t="n">
-        <v>241408.3662781981</v>
+        <v>280963.929304379</v>
       </c>
       <c r="AE11" t="n">
-        <v>330305.576927144</v>
+        <v>384427.2433280003</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.182567738790408e-06</v>
+        <v>5.59164597183635e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.714409722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>298781.6762521045</v>
+        <v>347738.0467717999</v>
       </c>
     </row>
     <row r="12">
@@ -55971,28 +55971,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>238.4315317702049</v>
+        <v>277.9870947963858</v>
       </c>
       <c r="AB12" t="n">
-        <v>326.23254062464</v>
+        <v>380.3542070254941</v>
       </c>
       <c r="AC12" t="n">
-        <v>295.0973648177678</v>
+        <v>344.0537353374625</v>
       </c>
       <c r="AD12" t="n">
-        <v>238431.5317702049</v>
+        <v>277987.0947963858</v>
       </c>
       <c r="AE12" t="n">
-        <v>326232.54062464</v>
+        <v>380354.2070254941</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.19664989692665e-06</v>
+        <v>5.61638776817191e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.686197916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>295097.3648177678</v>
+        <v>344053.7353374625</v>
       </c>
     </row>
     <row r="13">
@@ -56077,28 +56077,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>235.2751571817975</v>
+        <v>274.8307202079784</v>
       </c>
       <c r="AB13" t="n">
-        <v>321.913849663364</v>
+        <v>376.035516064216</v>
       </c>
       <c r="AC13" t="n">
-        <v>291.1908436605137</v>
+        <v>340.147214180208</v>
       </c>
       <c r="AD13" t="n">
-        <v>235275.1571817975</v>
+        <v>274830.7202079784</v>
       </c>
       <c r="AE13" t="n">
-        <v>321913.8496633641</v>
+        <v>376035.516064216</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.20925490560804e-06</v>
+        <v>5.638534271185557e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.657986111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>291190.8436605138</v>
+        <v>340147.214180208</v>
       </c>
     </row>
     <row r="14">
@@ -56183,28 +56183,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>231.165884132053</v>
+        <v>270.7214471582338</v>
       </c>
       <c r="AB14" t="n">
-        <v>316.2913609883742</v>
+        <v>370.4130273892232</v>
       </c>
       <c r="AC14" t="n">
-        <v>286.1049574134507</v>
+        <v>335.0613279331441</v>
       </c>
       <c r="AD14" t="n">
-        <v>231165.884132053</v>
+        <v>270721.4471582338</v>
       </c>
       <c r="AE14" t="n">
-        <v>316291.3609883742</v>
+        <v>370413.0273892232</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.225700502872041e-06</v>
+        <v>5.667428536836174e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.625434027777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>286104.9574134507</v>
+        <v>335061.3279331441</v>
       </c>
     </row>
     <row r="15">
@@ -56289,28 +56289,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>229.3917274281751</v>
+        <v>268.9472904543558</v>
       </c>
       <c r="AB15" t="n">
-        <v>313.8638815158599</v>
+        <v>367.9855479167076</v>
       </c>
       <c r="AC15" t="n">
-        <v>283.9091531748036</v>
+        <v>332.8655236944965</v>
       </c>
       <c r="AD15" t="n">
-        <v>229391.7274281751</v>
+        <v>268947.2904543558</v>
       </c>
       <c r="AE15" t="n">
-        <v>313863.8815158599</v>
+        <v>367985.5479167076</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.231313670800473e-06</v>
+        <v>5.67729065145944e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>283909.1531748036</v>
+        <v>332865.5236944965</v>
       </c>
     </row>
     <row r="16">
@@ -56395,28 +56395,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>226.7006857803781</v>
+        <v>256.5167045455116</v>
       </c>
       <c r="AB16" t="n">
-        <v>310.1818796129673</v>
+        <v>350.9774718773147</v>
       </c>
       <c r="AC16" t="n">
-        <v>280.5785563657998</v>
+        <v>317.4806745614242</v>
       </c>
       <c r="AD16" t="n">
-        <v>226700.6857803781</v>
+        <v>256516.7045455116</v>
       </c>
       <c r="AE16" t="n">
-        <v>310181.8796129673</v>
+        <v>350977.4718773147</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.238797894705048e-06</v>
+        <v>5.690440137623793e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>280578.5563657998</v>
+        <v>317480.6745614242</v>
       </c>
     </row>
     <row r="17">
@@ -56501,28 +56501,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>225.7527000799716</v>
+        <v>255.568718845105</v>
       </c>
       <c r="AB17" t="n">
-        <v>308.8848037554944</v>
+        <v>349.6803960198417</v>
       </c>
       <c r="AC17" t="n">
-        <v>279.4052716077063</v>
+        <v>316.3073898033306</v>
       </c>
       <c r="AD17" t="n">
-        <v>225752.7000799716</v>
+        <v>255568.718845105</v>
       </c>
       <c r="AE17" t="n">
-        <v>308884.8037554944</v>
+        <v>349680.3960198417</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.244804969154773e-06</v>
+        <v>5.700994330466234e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.586371527777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>279405.2716077063</v>
+        <v>316307.3898033306</v>
       </c>
     </row>
     <row r="18">
@@ -56607,28 +56607,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>226.3862633886209</v>
+        <v>256.2022821537544</v>
       </c>
       <c r="AB18" t="n">
-        <v>309.7516730252285</v>
+        <v>350.5472652895758</v>
       </c>
       <c r="AC18" t="n">
-        <v>280.1894080909959</v>
+        <v>317.0915262866203</v>
       </c>
       <c r="AD18" t="n">
-        <v>226386.2633886209</v>
+        <v>256202.2821537544</v>
       </c>
       <c r="AE18" t="n">
-        <v>309751.6730252284</v>
+        <v>350547.2652895758</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.245198875676066e-06</v>
+        <v>5.70168640868541e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.586371527777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>280189.4080909959</v>
+        <v>317091.5262866202</v>
       </c>
     </row>
   </sheetData>
@@ -56904,28 +56904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>807.6156384027994</v>
+        <v>879.2503936091163</v>
       </c>
       <c r="AB2" t="n">
-        <v>1105.015345950074</v>
+        <v>1203.029178325713</v>
       </c>
       <c r="AC2" t="n">
-        <v>999.5542322313769</v>
+        <v>1088.213762008363</v>
       </c>
       <c r="AD2" t="n">
-        <v>807615.6384027994</v>
+        <v>879250.3936091162</v>
       </c>
       <c r="AE2" t="n">
-        <v>1105015.345950074</v>
+        <v>1203029.178325713</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.542237028840723e-06</v>
+        <v>2.63705344872868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.35286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>999554.2322313769</v>
+        <v>1088213.762008363</v>
       </c>
     </row>
     <row r="3">
@@ -57010,28 +57010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.5979132812964</v>
+        <v>478.8021062888026</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.0583292400299</v>
+        <v>655.1181650824653</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.2211834318831</v>
+        <v>592.5946068711136</v>
       </c>
       <c r="AD3" t="n">
-        <v>427597.9132812964</v>
+        <v>478802.1062888026</v>
       </c>
       <c r="AE3" t="n">
-        <v>585058.3292400299</v>
+        <v>655118.1650824654</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.298551889772336e-06</v>
+        <v>3.930267575381868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>529221.1834318831</v>
+        <v>592594.6068711135</v>
       </c>
     </row>
     <row r="4">
@@ -57116,28 +57116,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.0037795426296</v>
+        <v>409.1226316955641</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.8365651822948</v>
+        <v>559.7796339025324</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.087250891233</v>
+        <v>506.3550512985246</v>
       </c>
       <c r="AD4" t="n">
-        <v>358003.7795426296</v>
+        <v>409122.6316955641</v>
       </c>
       <c r="AE4" t="n">
-        <v>489836.5651822948</v>
+        <v>559779.6339025324</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.581814105566672e-06</v>
+        <v>4.414614396970294e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.977430555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>443087.250891233</v>
+        <v>506355.0512985247</v>
       </c>
     </row>
     <row r="5">
@@ -57222,28 +57222,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.1129366671735</v>
+        <v>375.1445637568357</v>
       </c>
       <c r="AB5" t="n">
-        <v>457.148059970495</v>
+        <v>513.2893423422014</v>
       </c>
       <c r="AC5" t="n">
-        <v>413.5184907382421</v>
+        <v>464.3017279151775</v>
       </c>
       <c r="AD5" t="n">
-        <v>334112.9366671735</v>
+        <v>375144.5637568357</v>
       </c>
       <c r="AE5" t="n">
-        <v>457148.0599704949</v>
+        <v>513289.3423422014</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.724726298861906e-06</v>
+        <v>4.658978321027973e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.55859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>413518.490738242</v>
+        <v>464301.7279151775</v>
       </c>
     </row>
     <row r="6">
@@ -57328,28 +57328,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.684181485363</v>
+        <v>360.545216374433</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.4060005789887</v>
+        <v>493.3138711758482</v>
       </c>
       <c r="AC6" t="n">
-        <v>395.6605857869068</v>
+        <v>446.2326876811912</v>
       </c>
       <c r="AD6" t="n">
-        <v>319684.1814853629</v>
+        <v>360545.216374433</v>
       </c>
       <c r="AE6" t="n">
-        <v>437406.0005789887</v>
+        <v>493313.8711758482</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.81667976187856e-06</v>
+        <v>4.816208495272256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.311197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>395660.5857869068</v>
+        <v>446232.6876811913</v>
       </c>
     </row>
     <row r="7">
@@ -57434,28 +57434,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>310.0978865851823</v>
+        <v>340.87169641098</v>
       </c>
       <c r="AB7" t="n">
-        <v>424.2896089790786</v>
+        <v>466.3956932274068</v>
       </c>
       <c r="AC7" t="n">
-        <v>383.7960041923209</v>
+        <v>421.883542856249</v>
       </c>
       <c r="AD7" t="n">
-        <v>310097.8865851823</v>
+        <v>340871.69641098</v>
       </c>
       <c r="AE7" t="n">
-        <v>424289.6089790786</v>
+        <v>466395.6932274068</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.880449346137788e-06</v>
+        <v>4.925247377720304e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>383796.0041923209</v>
+        <v>421883.542856249</v>
       </c>
     </row>
     <row r="8">
@@ -57540,28 +57540,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>303.5198237465623</v>
+        <v>334.29363357236</v>
       </c>
       <c r="AB8" t="n">
-        <v>415.2892131996279</v>
+        <v>457.3952974479561</v>
       </c>
       <c r="AC8" t="n">
-        <v>375.654593553926</v>
+        <v>413.7421322178542</v>
       </c>
       <c r="AD8" t="n">
-        <v>303519.8237465623</v>
+        <v>334293.63357236</v>
       </c>
       <c r="AE8" t="n">
-        <v>415289.2131996279</v>
+        <v>457395.2974479561</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.924290935316006e-06</v>
+        <v>5.000211609403337e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.042100694444446</v>
       </c>
       <c r="AH8" t="n">
-        <v>375654.593553926</v>
+        <v>413742.1322178542</v>
       </c>
     </row>
     <row r="9">
@@ -57646,28 +57646,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>288.3962932801943</v>
+        <v>329.3425795152849</v>
       </c>
       <c r="AB9" t="n">
-        <v>394.5965316124678</v>
+        <v>450.6210468619765</v>
       </c>
       <c r="AC9" t="n">
-        <v>356.9367924550834</v>
+        <v>407.6144066000802</v>
       </c>
       <c r="AD9" t="n">
-        <v>288396.2932801943</v>
+        <v>329342.5795152849</v>
       </c>
       <c r="AE9" t="n">
-        <v>394596.5316124678</v>
+        <v>450621.0468619765</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.955416565728248e-06</v>
+        <v>5.053432968693455e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.968315972222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>356936.7924550835</v>
+        <v>407614.4066000802</v>
       </c>
     </row>
     <row r="10">
@@ -57752,28 +57752,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>283.4724464696656</v>
+        <v>324.4187327047562</v>
       </c>
       <c r="AB10" t="n">
-        <v>387.8595071815121</v>
+        <v>443.8840224310209</v>
       </c>
       <c r="AC10" t="n">
-        <v>350.842740180345</v>
+        <v>401.5203543253417</v>
       </c>
       <c r="AD10" t="n">
-        <v>283472.4464696656</v>
+        <v>324418.7327047562</v>
       </c>
       <c r="AE10" t="n">
-        <v>387859.5071815121</v>
+        <v>443884.0224310209</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.98454939663239e-06</v>
+        <v>5.103246862907072e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>350842.740180345</v>
+        <v>401520.3543253417</v>
       </c>
     </row>
     <row r="11">
@@ -57858,28 +57858,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>279.5979991059866</v>
+        <v>320.5442853410772</v>
       </c>
       <c r="AB11" t="n">
-        <v>382.5583173699724</v>
+        <v>438.5828326194811</v>
       </c>
       <c r="AC11" t="n">
-        <v>346.047488484152</v>
+        <v>396.7251026291487</v>
       </c>
       <c r="AD11" t="n">
-        <v>279597.9991059866</v>
+        <v>320544.2853410773</v>
       </c>
       <c r="AE11" t="n">
-        <v>382558.3173699724</v>
+        <v>438582.8326194811</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.007419143368214e-06</v>
+        <v>5.14235158116597e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.846788194444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>346047.4884841521</v>
+        <v>396725.1026291487</v>
       </c>
     </row>
     <row r="12">
@@ -57964,28 +57964,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>277.0218014910596</v>
+        <v>317.9680877261503</v>
       </c>
       <c r="AB12" t="n">
-        <v>379.0334501394119</v>
+        <v>435.0579653889205</v>
       </c>
       <c r="AC12" t="n">
-        <v>342.859029634894</v>
+        <v>393.5366437798905</v>
       </c>
       <c r="AD12" t="n">
-        <v>277021.8014910597</v>
+        <v>317968.0877261502</v>
       </c>
       <c r="AE12" t="n">
-        <v>379033.4501394118</v>
+        <v>435057.9653889205</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.018996359558133e-06</v>
+        <v>5.162147330658026e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.820746527777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>342859.029634894</v>
+        <v>393536.6437798906</v>
       </c>
     </row>
     <row r="13">
@@ -58070,28 +58070,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>272.938074927118</v>
+        <v>313.8843611622086</v>
       </c>
       <c r="AB13" t="n">
-        <v>373.4459152933259</v>
+        <v>429.4704305428347</v>
       </c>
       <c r="AC13" t="n">
-        <v>337.8047612723641</v>
+        <v>388.4823754173607</v>
       </c>
       <c r="AD13" t="n">
-        <v>272938.074927118</v>
+        <v>313884.3611622086</v>
       </c>
       <c r="AE13" t="n">
-        <v>373445.9152933259</v>
+        <v>429470.4305428347</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.041676315864614e-06</v>
+        <v>5.200927528433448e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>337804.7612723641</v>
+        <v>388482.3754173607</v>
       </c>
     </row>
     <row r="14">
@@ -58176,28 +58176,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>271.4862791149919</v>
+        <v>312.4325653500826</v>
       </c>
       <c r="AB14" t="n">
-        <v>371.4595042144642</v>
+        <v>427.484019463973</v>
       </c>
       <c r="AC14" t="n">
-        <v>336.0079304789235</v>
+        <v>386.6855446239201</v>
       </c>
       <c r="AD14" t="n">
-        <v>271486.279114992</v>
+        <v>312432.5653500826</v>
       </c>
       <c r="AE14" t="n">
-        <v>371459.5042144642</v>
+        <v>427484.019463973</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.048318980891617e-06</v>
+        <v>5.21228574535512e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.755642361111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>336007.9304789235</v>
+        <v>386685.5446239201</v>
       </c>
     </row>
     <row r="15">
@@ -58282,28 +58282,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>268.4891571170514</v>
+        <v>309.435443352142</v>
       </c>
       <c r="AB15" t="n">
-        <v>367.3587096731913</v>
+        <v>423.3832249227</v>
       </c>
       <c r="AC15" t="n">
-        <v>332.2985100131684</v>
+        <v>382.976124158165</v>
       </c>
       <c r="AD15" t="n">
-        <v>268489.1571170514</v>
+        <v>309435.4433521421</v>
       </c>
       <c r="AE15" t="n">
-        <v>367358.7096731913</v>
+        <v>423383.2249227</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.062458367877666e-06</v>
+        <v>5.236462521374108e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.725260416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>332298.5100131684</v>
+        <v>382976.124158165</v>
       </c>
     </row>
     <row r="16">
@@ -58388,28 +58388,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>266.9068626196645</v>
+        <v>307.8531488547551</v>
       </c>
       <c r="AB16" t="n">
-        <v>365.19374453596</v>
+        <v>421.2182597854685</v>
       </c>
       <c r="AC16" t="n">
-        <v>330.3401661100867</v>
+        <v>381.0177802550833</v>
       </c>
       <c r="AD16" t="n">
-        <v>266906.8626196645</v>
+        <v>307853.1488547551</v>
       </c>
       <c r="AE16" t="n">
-        <v>365193.74453596</v>
+        <v>421218.2597854686</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.068341871187297e-06</v>
+        <v>5.246522656361873e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.712239583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>330340.1661100867</v>
+        <v>381017.7802550833</v>
       </c>
     </row>
     <row r="17">
@@ -58494,28 +58494,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>264.5552546518676</v>
+        <v>305.5015408869583</v>
       </c>
       <c r="AB17" t="n">
-        <v>361.9761707687988</v>
+        <v>418.0006860183075</v>
       </c>
       <c r="AC17" t="n">
-        <v>327.4296730673702</v>
+        <v>378.1072872123669</v>
       </c>
       <c r="AD17" t="n">
-        <v>264555.2546518676</v>
+        <v>305501.5408869582</v>
       </c>
       <c r="AE17" t="n">
-        <v>361976.1707687988</v>
+        <v>418000.6860183075</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.07754670701043e-06</v>
+        <v>5.262261899810475e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>327429.6730673703</v>
+        <v>378107.2872123669</v>
       </c>
     </row>
     <row r="18">
@@ -58600,28 +58600,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>262.1308048605962</v>
+        <v>303.0770910956869</v>
       </c>
       <c r="AB18" t="n">
-        <v>358.6589316052052</v>
+        <v>414.683446854714</v>
       </c>
       <c r="AC18" t="n">
-        <v>324.4290265537757</v>
+        <v>375.1066406987724</v>
       </c>
       <c r="AD18" t="n">
-        <v>262130.8048605963</v>
+        <v>303077.0910956868</v>
       </c>
       <c r="AE18" t="n">
-        <v>358658.9316052052</v>
+        <v>414683.446854714</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.08466384811079e-06</v>
+        <v>5.274431417940837e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>324429.0265537757</v>
+        <v>375106.6406987724</v>
       </c>
     </row>
     <row r="19">
@@ -58706,28 +58706,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>260.1831846039805</v>
+        <v>301.1294708390711</v>
       </c>
       <c r="AB19" t="n">
-        <v>355.994111647162</v>
+        <v>412.0186268966707</v>
       </c>
       <c r="AC19" t="n">
-        <v>322.0185332724297</v>
+        <v>372.6961474174264</v>
       </c>
       <c r="AD19" t="n">
-        <v>260183.1846039805</v>
+        <v>301129.4708390711</v>
       </c>
       <c r="AE19" t="n">
-        <v>355994.1116471619</v>
+        <v>412018.6268966707</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.092729941357865e-06</v>
+        <v>5.288223538488582e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.657986111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>322018.5332724298</v>
+        <v>372696.1474174264</v>
       </c>
     </row>
     <row r="20">
@@ -58812,28 +58812,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>258.3378102423184</v>
+        <v>299.284096477409</v>
       </c>
       <c r="AB20" t="n">
-        <v>353.4691890333648</v>
+        <v>409.4937042828735</v>
       </c>
       <c r="AC20" t="n">
-        <v>319.7345857291423</v>
+        <v>370.4121998741389</v>
       </c>
       <c r="AD20" t="n">
-        <v>258337.8102423184</v>
+        <v>299284.096477409</v>
       </c>
       <c r="AE20" t="n">
-        <v>353469.1890333648</v>
+        <v>409493.7042828735</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.098993025526182e-06</v>
+        <v>5.298932714443301e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.644965277777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>319734.5857291424</v>
+        <v>370412.1998741389</v>
       </c>
     </row>
     <row r="21">
@@ -58918,28 +58918,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>255.2668440654571</v>
+        <v>296.2131303005509</v>
       </c>
       <c r="AB21" t="n">
-        <v>349.2673576285523</v>
+        <v>405.2918728782304</v>
       </c>
       <c r="AC21" t="n">
-        <v>315.9337712164026</v>
+        <v>366.6113853614474</v>
       </c>
       <c r="AD21" t="n">
-        <v>255266.8440654571</v>
+        <v>296213.1303005509</v>
       </c>
       <c r="AE21" t="n">
-        <v>349267.3576285523</v>
+        <v>405291.8728782304</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.106679537914571e-06</v>
+        <v>5.312075794024093e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.629774305555555</v>
       </c>
       <c r="AH21" t="n">
-        <v>315933.7712164026</v>
+        <v>366611.3853614475</v>
       </c>
     </row>
     <row r="22">
@@ -59024,28 +59024,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>254.680463215952</v>
+        <v>295.6267494510459</v>
       </c>
       <c r="AB22" t="n">
-        <v>348.4650454809625</v>
+        <v>404.4895607306402</v>
       </c>
       <c r="AC22" t="n">
-        <v>315.2080306141265</v>
+        <v>365.8856447591712</v>
       </c>
       <c r="AD22" t="n">
-        <v>254680.463215952</v>
+        <v>295626.7494510459</v>
       </c>
       <c r="AE22" t="n">
-        <v>348465.0454809626</v>
+        <v>404489.5607306402</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.107059118773257e-06</v>
+        <v>5.312724834991046e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.627604166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>315208.0306141265</v>
+        <v>365885.6447591712</v>
       </c>
     </row>
     <row r="23">
@@ -59130,28 +59130,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>252.0522262331285</v>
+        <v>292.9985124682223</v>
       </c>
       <c r="AB23" t="n">
-        <v>344.8689756914328</v>
+        <v>400.8934909411087</v>
       </c>
       <c r="AC23" t="n">
-        <v>311.9551646781927</v>
+        <v>362.6327788232369</v>
       </c>
       <c r="AD23" t="n">
-        <v>252052.2262331285</v>
+        <v>292998.5124682223</v>
       </c>
       <c r="AE23" t="n">
-        <v>344868.9756914328</v>
+        <v>400893.4909411087</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.114460945517632e-06</v>
+        <v>5.325381133846622e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.612413194444445</v>
       </c>
       <c r="AH23" t="n">
-        <v>311955.1646781927</v>
+        <v>362632.7788232369</v>
       </c>
     </row>
     <row r="24">
@@ -59236,28 +59236,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>252.3274688712119</v>
+        <v>293.2737551063057</v>
       </c>
       <c r="AB24" t="n">
-        <v>345.2455748117065</v>
+        <v>401.2700900613826</v>
       </c>
       <c r="AC24" t="n">
-        <v>312.2958217069879</v>
+        <v>362.973435852032</v>
       </c>
       <c r="AD24" t="n">
-        <v>252327.4688712119</v>
+        <v>293273.7551063057</v>
       </c>
       <c r="AE24" t="n">
-        <v>345245.5748117066</v>
+        <v>401270.0900613826</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.112752831653545e-06</v>
+        <v>5.322460449495335e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.616753472222222</v>
       </c>
       <c r="AH24" t="n">
-        <v>312295.8217069879</v>
+        <v>362973.435852032</v>
       </c>
     </row>
     <row r="25">
@@ -59342,28 +59342,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>252.7882737215511</v>
+        <v>293.7345599566449</v>
       </c>
       <c r="AB25" t="n">
-        <v>345.8760683372155</v>
+        <v>401.9005835868919</v>
       </c>
       <c r="AC25" t="n">
-        <v>312.8661418153256</v>
+        <v>363.5437559603699</v>
       </c>
       <c r="AD25" t="n">
-        <v>252788.2737215511</v>
+        <v>293734.5599566449</v>
       </c>
       <c r="AE25" t="n">
-        <v>345876.0683372155</v>
+        <v>401900.5835868919</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.112657936438874e-06</v>
+        <v>5.322298189253598e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.616753472222222</v>
       </c>
       <c r="AH25" t="n">
-        <v>312866.1418153256</v>
+        <v>363543.7559603699</v>
       </c>
     </row>
     <row r="26">
@@ -59448,28 +59448,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>253.0991168481616</v>
+        <v>294.0454030832554</v>
       </c>
       <c r="AB26" t="n">
-        <v>346.3013776164748</v>
+        <v>402.3258928661514</v>
       </c>
       <c r="AC26" t="n">
-        <v>313.2508601738978</v>
+        <v>363.9284743189422</v>
       </c>
       <c r="AD26" t="n">
-        <v>253099.1168481616</v>
+        <v>294045.4030832554</v>
       </c>
       <c r="AE26" t="n">
-        <v>346301.3776164748</v>
+        <v>402325.8928661514</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.113037517297559e-06</v>
+        <v>5.322947230220549e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>313250.8601738978</v>
+        <v>363928.4743189422</v>
       </c>
     </row>
   </sheetData>
@@ -59745,28 +59745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.586945740143</v>
+        <v>158.0008206489354</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.7795526016911</v>
+        <v>216.1836933160298</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.3353286341502</v>
+        <v>195.5514250417291</v>
       </c>
       <c r="AD2" t="n">
-        <v>133586.945740143</v>
+        <v>158000.8206489354</v>
       </c>
       <c r="AE2" t="n">
-        <v>182779.5526016911</v>
+        <v>216183.6933160298</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.688649384589228e-06</v>
+        <v>7.906474587896776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165335.3286341502</v>
+        <v>195551.4250417291</v>
       </c>
     </row>
   </sheetData>
@@ -60042,28 +60042,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.2016758374963</v>
+        <v>408.9223035123011</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.5803120910454</v>
+        <v>559.5055360443364</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.2828226564118</v>
+        <v>506.107112955216</v>
       </c>
       <c r="AD2" t="n">
-        <v>362201.6758374963</v>
+        <v>408922.3035123011</v>
       </c>
       <c r="AE2" t="n">
-        <v>495580.3120910454</v>
+        <v>559505.5360443364</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424988144232617e-06</v>
+        <v>4.46787705417571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.353298611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>448282.8226564118</v>
+        <v>506107.112955216</v>
       </c>
     </row>
     <row r="3">
@@ -60148,28 +60148,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.4718475581306</v>
+        <v>295.9848234584482</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.6525848021682</v>
+        <v>404.9794933846785</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.9004784631687</v>
+        <v>366.3288189283329</v>
       </c>
       <c r="AD3" t="n">
-        <v>258471.8475581306</v>
+        <v>295984.8234584482</v>
       </c>
       <c r="AE3" t="n">
-        <v>353652.5848021682</v>
+        <v>404979.4933846785</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.988097919741187e-06</v>
+        <v>5.505368825407824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>319900.4784631687</v>
+        <v>366328.8189283328</v>
       </c>
     </row>
     <row r="4">
@@ -60254,28 +60254,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.566979393592</v>
+        <v>264.7018008273841</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.6813778047141</v>
+        <v>362.1766817113015</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.7896813967953</v>
+        <v>327.6110475269394</v>
       </c>
       <c r="AD4" t="n">
-        <v>236566.979393592</v>
+        <v>264701.8008273842</v>
       </c>
       <c r="AE4" t="n">
-        <v>323681.3778047141</v>
+        <v>362176.6817113014</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.187715527614492e-06</v>
+        <v>5.873150800733239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.115885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>292789.6813967953</v>
+        <v>327611.0475269394</v>
       </c>
     </row>
     <row r="5">
@@ -60360,28 +60360,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.9831001360685</v>
+        <v>253.410735181814</v>
       </c>
       <c r="AB5" t="n">
-        <v>295.5176061079221</v>
+        <v>346.7277475682083</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.3138205426342</v>
+        <v>313.6365379758521</v>
       </c>
       <c r="AD5" t="n">
-        <v>215983.1001360685</v>
+        <v>253410.735181814</v>
       </c>
       <c r="AE5" t="n">
-        <v>295517.606107922</v>
+        <v>346727.7475682083</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.287106284204813e-06</v>
+        <v>6.056271564363851e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.898871527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>267313.8205426342</v>
+        <v>313636.5379758521</v>
       </c>
     </row>
     <row r="6">
@@ -60466,28 +60466,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>207.9219330408371</v>
+        <v>245.3495680865826</v>
       </c>
       <c r="AB6" t="n">
-        <v>284.4879616546391</v>
+        <v>335.6981031149253</v>
       </c>
       <c r="AC6" t="n">
-        <v>257.3368298757659</v>
+        <v>303.6595473089837</v>
       </c>
       <c r="AD6" t="n">
-        <v>207921.9330408371</v>
+        <v>245349.5680865826</v>
       </c>
       <c r="AE6" t="n">
-        <v>284487.9616546391</v>
+        <v>335698.1031149253</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.350022409827708e-06</v>
+        <v>6.172190281194165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>257336.8298757659</v>
+        <v>303659.5473089837</v>
       </c>
     </row>
     <row r="7">
@@ -60572,28 +60572,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>202.5845473362479</v>
+        <v>240.0121823819933</v>
       </c>
       <c r="AB7" t="n">
-        <v>277.185115064785</v>
+        <v>328.3952565250713</v>
       </c>
       <c r="AC7" t="n">
-        <v>250.7309567148356</v>
+        <v>297.0536741480534</v>
       </c>
       <c r="AD7" t="n">
-        <v>202584.5473362479</v>
+        <v>240012.1823819933</v>
       </c>
       <c r="AE7" t="n">
-        <v>277185.115064785</v>
+        <v>328395.2565250713</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.384824851409808e-06</v>
+        <v>6.236311431866083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>250730.9567148356</v>
+        <v>297053.6741480534</v>
       </c>
     </row>
     <row r="8">
@@ -60678,28 +60678,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>197.403419500849</v>
+        <v>234.8310545465945</v>
       </c>
       <c r="AB8" t="n">
-        <v>270.0960673851678</v>
+        <v>321.306208845454</v>
       </c>
       <c r="AC8" t="n">
-        <v>244.3184777962178</v>
+        <v>290.6411952294357</v>
       </c>
       <c r="AD8" t="n">
-        <v>197403.419500849</v>
+        <v>234831.0545465945</v>
       </c>
       <c r="AE8" t="n">
-        <v>270096.0673851678</v>
+        <v>321306.208845454</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.417014497077336e-06</v>
+        <v>6.295618682337407e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.638454861111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>244318.4777962178</v>
+        <v>290641.1952294357</v>
       </c>
     </row>
     <row r="9">
@@ -60784,28 +60784,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>193.7478434708599</v>
+        <v>221.9679162506692</v>
       </c>
       <c r="AB9" t="n">
-        <v>265.0943469883067</v>
+        <v>303.7062955473672</v>
       </c>
       <c r="AC9" t="n">
-        <v>239.7941145740729</v>
+        <v>274.7209929548792</v>
       </c>
       <c r="AD9" t="n">
-        <v>193747.8434708599</v>
+        <v>221967.9162506693</v>
       </c>
       <c r="AE9" t="n">
-        <v>265094.3469883067</v>
+        <v>303706.2955473672</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.438230399903661e-06</v>
+        <v>6.334707551966234e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>239794.1145740729</v>
+        <v>274720.9929548792</v>
       </c>
     </row>
     <row r="10">
@@ -60890,28 +60890,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>194.3416215407865</v>
+        <v>222.5616943205959</v>
       </c>
       <c r="AB10" t="n">
-        <v>265.9067803392196</v>
+        <v>304.5187288982801</v>
       </c>
       <c r="AC10" t="n">
-        <v>240.5290104262323</v>
+        <v>275.4558888070386</v>
       </c>
       <c r="AD10" t="n">
-        <v>194341.6215407865</v>
+        <v>222561.6943205959</v>
       </c>
       <c r="AE10" t="n">
-        <v>265906.7803392196</v>
+        <v>304518.7288982801</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.436662722354918e-06</v>
+        <v>6.331819211845878e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.599392361111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>240529.0104262323</v>
+        <v>275455.8888070386</v>
       </c>
     </row>
   </sheetData>
@@ -61187,28 +61187,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.0098018765401</v>
+        <v>526.4933717350312</v>
       </c>
       <c r="AB2" t="n">
-        <v>654.034099231604</v>
+        <v>720.3714584561347</v>
       </c>
       <c r="AC2" t="n">
-        <v>591.6140027435624</v>
+        <v>651.6202175087725</v>
       </c>
       <c r="AD2" t="n">
-        <v>478009.8018765401</v>
+        <v>526493.3717350313</v>
       </c>
       <c r="AE2" t="n">
-        <v>654034.099231604</v>
+        <v>720371.4584561348</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.082181332597545e-06</v>
+        <v>3.719664996672017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.48611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>591614.0027435625</v>
+        <v>651620.2175087725</v>
       </c>
     </row>
     <row r="3">
@@ -61293,28 +61293,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.8445788656971</v>
+        <v>357.614384483286</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.2572192341085</v>
+        <v>489.3037776832032</v>
       </c>
       <c r="AC3" t="n">
-        <v>394.6214425212572</v>
+        <v>442.6053118832828</v>
       </c>
       <c r="AD3" t="n">
-        <v>318844.5788656971</v>
+        <v>357614.3844832859</v>
       </c>
       <c r="AE3" t="n">
-        <v>436257.2192341085</v>
+        <v>489303.7776832032</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.723347884151769e-06</v>
+        <v>4.865062249791143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.018663194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>394621.4425212572</v>
+        <v>442605.3118832827</v>
       </c>
     </row>
     <row r="4">
@@ -61399,28 +61399,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.5540573132242</v>
+        <v>316.2385220762415</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.761706036767</v>
+        <v>432.6914973636641</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.5177818115191</v>
+        <v>391.3960281416058</v>
       </c>
       <c r="AD4" t="n">
-        <v>277554.0573132242</v>
+        <v>316238.5220762415</v>
       </c>
       <c r="AE4" t="n">
-        <v>379761.7060367669</v>
+        <v>432691.4973636641</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.95266655505448e-06</v>
+        <v>5.274723320076531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>343517.7818115191</v>
+        <v>391396.0281416058</v>
       </c>
     </row>
     <row r="5">
@@ -61505,28 +61505,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>262.9364827043934</v>
+        <v>292.0778649356515</v>
       </c>
       <c r="AB5" t="n">
-        <v>359.7612955750864</v>
+        <v>399.6338203709428</v>
       </c>
       <c r="AC5" t="n">
-        <v>325.426182453549</v>
+        <v>361.4933294443289</v>
       </c>
       <c r="AD5" t="n">
-        <v>262936.4827043934</v>
+        <v>292077.8649356515</v>
       </c>
       <c r="AE5" t="n">
-        <v>359761.2955750864</v>
+        <v>399633.8203709428</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.067879314239914e-06</v>
+        <v>5.480542506332244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.118055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>325426.182453549</v>
+        <v>361493.3294443289</v>
       </c>
     </row>
     <row r="6">
@@ -61611,28 +61611,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>243.7927007317226</v>
+        <v>282.5624168407635</v>
       </c>
       <c r="AB6" t="n">
-        <v>333.5679285158669</v>
+        <v>386.6143644955746</v>
       </c>
       <c r="AC6" t="n">
-        <v>301.7326735839399</v>
+        <v>349.7164321647847</v>
       </c>
       <c r="AD6" t="n">
-        <v>243792.7007317226</v>
+        <v>282562.4168407635</v>
       </c>
       <c r="AE6" t="n">
-        <v>333567.9285158669</v>
+        <v>386614.3644955746</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.14274245208617e-06</v>
+        <v>5.614280038711501e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.948784722222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>301732.6735839398</v>
+        <v>349716.4321647847</v>
       </c>
     </row>
     <row r="7">
@@ -61717,28 +61717,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>237.0195495736374</v>
+        <v>275.7892656826782</v>
       </c>
       <c r="AB7" t="n">
-        <v>324.3006042910391</v>
+        <v>377.347040270742</v>
       </c>
       <c r="AC7" t="n">
-        <v>293.3498097763554</v>
+        <v>341.3335683571989</v>
       </c>
       <c r="AD7" t="n">
-        <v>237019.5495736374</v>
+        <v>275789.2656826782</v>
       </c>
       <c r="AE7" t="n">
-        <v>324300.6042910391</v>
+        <v>377347.040270742</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.193657435621393e-06</v>
+        <v>5.705235941109223e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.838107638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>293349.8097763554</v>
+        <v>341333.568357199</v>
       </c>
     </row>
     <row r="8">
@@ -61823,28 +61823,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>232.461941523458</v>
+        <v>271.2316576324988</v>
       </c>
       <c r="AB8" t="n">
-        <v>318.0646838893102</v>
+        <v>371.11111986901</v>
       </c>
       <c r="AC8" t="n">
-        <v>287.7090368655964</v>
+        <v>335.6927954464389</v>
       </c>
       <c r="AD8" t="n">
-        <v>232461.941523458</v>
+        <v>271231.6576324988</v>
       </c>
       <c r="AE8" t="n">
-        <v>318064.6838893102</v>
+        <v>371111.11986901</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.221328622325318e-06</v>
+        <v>5.754668496760158e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>287709.0368655964</v>
+        <v>335692.7954464389</v>
       </c>
     </row>
     <row r="9">
@@ -61929,28 +61929,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>228.2408725167379</v>
+        <v>267.0105886257786</v>
       </c>
       <c r="AB9" t="n">
-        <v>312.2892310538969</v>
+        <v>365.3356670335936</v>
       </c>
       <c r="AC9" t="n">
-        <v>282.484785142894</v>
+        <v>330.4685437237358</v>
       </c>
       <c r="AD9" t="n">
-        <v>228240.8725167378</v>
+        <v>267010.5886257786</v>
       </c>
       <c r="AE9" t="n">
-        <v>312289.2310538968</v>
+        <v>365335.6670335936</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.249301676520559e-06</v>
+        <v>5.804640316654558e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.720920138888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>282484.785142894</v>
+        <v>330468.5437237358</v>
       </c>
     </row>
     <row r="10">
@@ -62035,28 +62035,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>222.6350595327049</v>
+        <v>261.4047756417455</v>
       </c>
       <c r="AB10" t="n">
-        <v>304.6191104181323</v>
+        <v>357.6655463978251</v>
       </c>
       <c r="AC10" t="n">
-        <v>275.5466900555224</v>
+        <v>323.5304486363631</v>
       </c>
       <c r="AD10" t="n">
-        <v>222635.0595327049</v>
+        <v>261404.7756417455</v>
       </c>
       <c r="AE10" t="n">
-        <v>304619.1104181323</v>
+        <v>357665.5463978251</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.277073485721589e-06</v>
+        <v>5.854252627053314e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.664496527777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>275546.6900555224</v>
+        <v>323530.4486363631</v>
       </c>
     </row>
     <row r="11">
@@ -62141,28 +62141,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>220.2654076525831</v>
+        <v>259.0351237616237</v>
       </c>
       <c r="AB11" t="n">
-        <v>301.3768481740885</v>
+        <v>354.4232841537796</v>
       </c>
       <c r="AC11" t="n">
-        <v>272.6138647695055</v>
+        <v>320.5976233503457</v>
       </c>
       <c r="AD11" t="n">
-        <v>220265.4076525831</v>
+        <v>259035.1237616237</v>
       </c>
       <c r="AE11" t="n">
-        <v>301376.8481740885</v>
+        <v>354423.2841537796</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.290355655339473e-06</v>
+        <v>5.877980253765763e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.636284722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>272613.8647695055</v>
+        <v>320597.6233503457</v>
       </c>
     </row>
     <row r="12">
@@ -62247,28 +62247,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>216.3783572339148</v>
+        <v>255.1480733429522</v>
       </c>
       <c r="AB12" t="n">
-        <v>296.0584143067075</v>
+        <v>349.1048502862267</v>
       </c>
       <c r="AC12" t="n">
-        <v>267.8030147659569</v>
+        <v>315.7867733467481</v>
       </c>
       <c r="AD12" t="n">
-        <v>216378.3572339148</v>
+        <v>255148.0733429522</v>
       </c>
       <c r="AE12" t="n">
-        <v>296058.4143067075</v>
+        <v>349104.8502862267</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.303436579963147e-06</v>
+        <v>5.901348370982569e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.610243055555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>267803.0147659569</v>
+        <v>315786.7733467481</v>
       </c>
     </row>
     <row r="13">
@@ -62353,28 +62353,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>213.7784801766224</v>
+        <v>243.0051137539007</v>
       </c>
       <c r="AB13" t="n">
-        <v>292.501147818441</v>
+        <v>332.4903172669262</v>
       </c>
       <c r="AC13" t="n">
-        <v>264.5852487986745</v>
+        <v>300.7579080401608</v>
       </c>
       <c r="AD13" t="n">
-        <v>213778.4801766224</v>
+        <v>243005.1137539007</v>
       </c>
       <c r="AE13" t="n">
-        <v>292501.147818441</v>
+        <v>332490.3172669262</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.310782022251825e-06</v>
+        <v>5.914470467573545e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.595052083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>264585.2487986745</v>
+        <v>300757.9080401608</v>
       </c>
     </row>
     <row r="14">
@@ -62459,28 +62459,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>213.5098798136964</v>
+        <v>242.7365133909748</v>
       </c>
       <c r="AB14" t="n">
-        <v>292.1336369520743</v>
+        <v>332.1228064005594</v>
       </c>
       <c r="AC14" t="n">
-        <v>264.2528126535889</v>
+        <v>300.4254718950752</v>
       </c>
       <c r="AD14" t="n">
-        <v>213509.8798136964</v>
+        <v>242736.5133909748</v>
       </c>
       <c r="AE14" t="n">
-        <v>292133.6369520742</v>
+        <v>332122.8064005594</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.316014392101294e-06</v>
+        <v>5.923817714460267e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.584201388888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>264252.8126535889</v>
+        <v>300425.4718950752</v>
       </c>
     </row>
     <row r="15">
@@ -62565,28 +62565,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>214.296879864508</v>
+        <v>243.5235134417864</v>
       </c>
       <c r="AB15" t="n">
-        <v>293.210445141586</v>
+        <v>333.1996145900711</v>
       </c>
       <c r="AC15" t="n">
-        <v>265.2268517808038</v>
+        <v>301.39951102229</v>
       </c>
       <c r="AD15" t="n">
-        <v>214296.879864508</v>
+        <v>243523.5134417864</v>
       </c>
       <c r="AE15" t="n">
-        <v>293210.445141586</v>
+        <v>333199.6145900711</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.31651750458682e-06</v>
+        <v>5.924716488199374e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.584201388888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>265226.8517808038</v>
+        <v>301399.51102229</v>
       </c>
     </row>
   </sheetData>
